--- a/data/pca/factorExposure/factorExposure_2011-07-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-07-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -704,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,39 +747,63 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>0.02305656347098392</v>
+        <v>0.01916468143462087</v>
       </c>
       <c r="C2">
-        <v>-0.003569469472227309</v>
+        <v>0.001296433848458946</v>
       </c>
       <c r="D2">
-        <v>0.05198822514718247</v>
+        <v>0.003348255050536753</v>
       </c>
       <c r="E2">
-        <v>-0.03191211346995143</v>
+        <v>-0.03784577720350753</v>
       </c>
       <c r="F2">
-        <v>-0.003868674258706764</v>
+        <v>-0.006789915455144791</v>
       </c>
       <c r="G2">
-        <v>0.04970090629610266</v>
+        <v>0.02728948271051185</v>
       </c>
       <c r="H2">
-        <v>0.02451537234191705</v>
+        <v>-0.01904242044110842</v>
       </c>
       <c r="I2">
-        <v>0.0363664968559483</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.02139424912965981</v>
+      </c>
+      <c r="J2">
+        <v>0.05552520022569558</v>
+      </c>
+      <c r="K2">
+        <v>-0.003958019227554041</v>
+      </c>
+      <c r="L2">
+        <v>-0.04877346194813138</v>
+      </c>
+      <c r="M2">
+        <v>-0.05041301071248772</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -793,39 +829,63 @@
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>0.06982133000168961</v>
+        <v>0.1050909169279469</v>
       </c>
       <c r="C4">
-        <v>0.05688923265813842</v>
+        <v>-0.07613204599217181</v>
       </c>
       <c r="D4">
-        <v>0.0372084347910351</v>
+        <v>0.01919848294702273</v>
       </c>
       <c r="E4">
-        <v>-0.0455806619101831</v>
+        <v>-0.05002355474159343</v>
       </c>
       <c r="F4">
-        <v>0.03356019587090797</v>
+        <v>-0.09712787154121202</v>
       </c>
       <c r="G4">
-        <v>-0.008591208407702569</v>
+        <v>-0.02133062821787857</v>
       </c>
       <c r="H4">
-        <v>-0.006230351443513123</v>
+        <v>0.0678379950341646</v>
       </c>
       <c r="I4">
-        <v>0.009204585281514839</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>-0.030144346349752</v>
+      </c>
+      <c r="J4">
+        <v>0.02275057382122499</v>
+      </c>
+      <c r="K4">
+        <v>0.0708183456779384</v>
+      </c>
+      <c r="L4">
+        <v>0.06711870196430605</v>
+      </c>
+      <c r="M4">
+        <v>-0.01849191858142925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -851,329 +911,473 @@
       <c r="I5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>0.1256652386167702</v>
+        <v>0.1283633977042341</v>
       </c>
       <c r="C6">
-        <v>0.02835893608957102</v>
+        <v>-0.05018970793942441</v>
       </c>
       <c r="D6">
-        <v>0.06323390905763343</v>
+        <v>0.001876394271205823</v>
       </c>
       <c r="E6">
-        <v>-0.1038100666620711</v>
+        <v>-0.0339710944764973</v>
       </c>
       <c r="F6">
-        <v>-0.006105040916261771</v>
+        <v>-0.03332954785869474</v>
       </c>
       <c r="G6">
-        <v>-0.1116148496623532</v>
+        <v>-0.1638206972167231</v>
       </c>
       <c r="H6">
-        <v>0.1039079980997903</v>
+        <v>-0.05184473648005578</v>
       </c>
       <c r="I6">
-        <v>-0.2642910808826359</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>-0.1005845393361744</v>
+      </c>
+      <c r="J6">
+        <v>-0.04092067625762062</v>
+      </c>
+      <c r="K6">
+        <v>0.3989838092722854</v>
+      </c>
+      <c r="L6">
+        <v>-0.1390486984604274</v>
+      </c>
+      <c r="M6">
+        <v>0.07563145704465297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>0.06584564130915674</v>
+        <v>0.07052957763731579</v>
       </c>
       <c r="C7">
-        <v>0.05145445064706883</v>
+        <v>-0.07486215078859654</v>
       </c>
       <c r="D7">
-        <v>0.05568599173205945</v>
+        <v>0.002985331246725693</v>
       </c>
       <c r="E7">
-        <v>-0.03302927176990741</v>
+        <v>-0.04590113510269618</v>
       </c>
       <c r="F7">
-        <v>0.01280060305542723</v>
+        <v>-0.01824540266198985</v>
       </c>
       <c r="G7">
-        <v>-0.04351880732587266</v>
+        <v>-0.003736973558354297</v>
       </c>
       <c r="H7">
-        <v>0.004878703818905586</v>
+        <v>0.05176882405147424</v>
       </c>
       <c r="I7">
-        <v>0.04849469664292191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>-0.02793030021731832</v>
+      </c>
+      <c r="J7">
+        <v>-0.001418315804536138</v>
+      </c>
+      <c r="K7">
+        <v>-0.03008299716351789</v>
+      </c>
+      <c r="L7">
+        <v>0.09075742834686894</v>
+      </c>
+      <c r="M7">
+        <v>-0.01180459587394461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>0.02590728327221081</v>
+        <v>0.03462653223109933</v>
       </c>
       <c r="C8">
-        <v>0.01209635896092856</v>
+        <v>-0.009523502962993452</v>
       </c>
       <c r="D8">
-        <v>0.03546514428291316</v>
+        <v>0.01694560238487786</v>
       </c>
       <c r="E8">
-        <v>-0.05679899047121225</v>
+        <v>-0.04949769541912571</v>
       </c>
       <c r="F8">
-        <v>-0.04222115993268225</v>
+        <v>-0.09957399518060366</v>
       </c>
       <c r="G8">
-        <v>0.002298813431792065</v>
+        <v>-0.01572692749478881</v>
       </c>
       <c r="H8">
-        <v>0.02702818846810036</v>
+        <v>0.0446666298173184</v>
       </c>
       <c r="I8">
-        <v>0.04672090931406119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>-0.01445265823233482</v>
+      </c>
+      <c r="J8">
+        <v>0.05258675063701613</v>
+      </c>
+      <c r="K8">
+        <v>0.05577612742456404</v>
+      </c>
+      <c r="L8">
+        <v>0.05506863752048706</v>
+      </c>
+      <c r="M8">
+        <v>0.01084670667884338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>0.0717657141084129</v>
+        <v>0.08431728731260285</v>
       </c>
       <c r="C9">
-        <v>0.07430691329384664</v>
+        <v>-0.06822435681706228</v>
       </c>
       <c r="D9">
-        <v>0.04210303158682416</v>
+        <v>0.0006663482287109349</v>
       </c>
       <c r="E9">
-        <v>-0.02995244484660222</v>
+        <v>-0.03269533702129761</v>
       </c>
       <c r="F9">
-        <v>0.02218676149448125</v>
+        <v>-0.09908154052990005</v>
       </c>
       <c r="G9">
-        <v>0.00301082714857032</v>
+        <v>-0.01071782249583202</v>
       </c>
       <c r="H9">
-        <v>-0.005598323149455895</v>
+        <v>0.06503955918567314</v>
       </c>
       <c r="I9">
-        <v>0.02395489947364444</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>-0.04032287525454962</v>
+      </c>
+      <c r="J9">
+        <v>0.01146738211007326</v>
+      </c>
+      <c r="K9">
+        <v>0.03908347325913156</v>
+      </c>
+      <c r="L9">
+        <v>0.03464262722861595</v>
+      </c>
+      <c r="M9">
+        <v>0.003657095084767572</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>0.06255496826062545</v>
+        <v>0.1072393445221779</v>
       </c>
       <c r="C10">
-        <v>-0.1361887715376844</v>
+        <v>0.1698134486396481</v>
       </c>
       <c r="D10">
-        <v>0.05588378136751469</v>
+        <v>0.01019441251930561</v>
       </c>
       <c r="E10">
-        <v>-0.03298088116660537</v>
+        <v>-0.0490737486393765</v>
       </c>
       <c r="F10">
-        <v>-0.02391524627100142</v>
+        <v>0.01395438983656683</v>
       </c>
       <c r="G10">
-        <v>-0.04554530794945544</v>
+        <v>-0.0121266811779676</v>
       </c>
       <c r="H10">
-        <v>0.03264021819129403</v>
+        <v>-0.000672044683645852</v>
       </c>
       <c r="I10">
-        <v>-0.01529129467616827</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>-0.01516964520839279</v>
+      </c>
+      <c r="J10">
+        <v>-0.04202320248668804</v>
+      </c>
+      <c r="K10">
+        <v>-0.06887554758734503</v>
+      </c>
+      <c r="L10">
+        <v>-0.01092507553895251</v>
+      </c>
+      <c r="M10">
+        <v>0.04192953836777716</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>0.06408681583103411</v>
+        <v>0.06646303039943638</v>
       </c>
       <c r="C11">
-        <v>0.08834596852404213</v>
+        <v>-0.07036738059579949</v>
       </c>
       <c r="D11">
-        <v>0.03587600517433962</v>
+        <v>-0.03165081882875893</v>
       </c>
       <c r="E11">
-        <v>-0.004930901568989422</v>
+        <v>-0.01458478428104885</v>
       </c>
       <c r="F11">
-        <v>-0.01501795772770782</v>
+        <v>-0.1070984791751823</v>
       </c>
       <c r="G11">
-        <v>0.04755236417176953</v>
+        <v>0.0167491439746809</v>
       </c>
       <c r="H11">
-        <v>-0.01044210379308169</v>
+        <v>0.04127885365741116</v>
       </c>
       <c r="I11">
-        <v>0.07680325608298892</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>-0.0388853589706609</v>
+      </c>
+      <c r="J11">
+        <v>0.02990326599420589</v>
+      </c>
+      <c r="K11">
+        <v>-0.08646274541086602</v>
+      </c>
+      <c r="L11">
+        <v>-0.01525828167148111</v>
+      </c>
+      <c r="M11">
+        <v>0.05814985093644329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>0.05738478426538755</v>
+        <v>0.06957738454151532</v>
       </c>
       <c r="C12">
-        <v>0.0548395171994774</v>
+        <v>-0.06131461867385189</v>
       </c>
       <c r="D12">
-        <v>0.01271260753605578</v>
+        <v>-0.0305292017008942</v>
       </c>
       <c r="E12">
-        <v>-0.01464280667087584</v>
+        <v>-0.004673518779464621</v>
       </c>
       <c r="F12">
-        <v>0.01163801145412289</v>
+        <v>-0.1170745332160014</v>
       </c>
       <c r="G12">
-        <v>-0.004391039010573357</v>
+        <v>0.01672392031042343</v>
       </c>
       <c r="H12">
-        <v>-0.01344512949297612</v>
+        <v>0.03761504657476101</v>
       </c>
       <c r="I12">
-        <v>0.08060043147163794</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>-0.05824399961548829</v>
+      </c>
+      <c r="J12">
+        <v>0.05849738351179906</v>
+      </c>
+      <c r="K12">
+        <v>-0.06597393774690348</v>
+      </c>
+      <c r="L12">
+        <v>0.01419932366108746</v>
+      </c>
+      <c r="M12">
+        <v>0.1047543567154298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>0.05646007222428572</v>
+        <v>0.04745490723801678</v>
       </c>
       <c r="C13">
-        <v>0.01955948545429043</v>
+        <v>-0.03558473961178701</v>
       </c>
       <c r="D13">
-        <v>0.01033542736097973</v>
+        <v>0.02103257207087918</v>
       </c>
       <c r="E13">
-        <v>-0.01321862449832913</v>
+        <v>-0.00942174251245982</v>
       </c>
       <c r="F13">
-        <v>0.02480570840324821</v>
+        <v>-0.04713800440955333</v>
       </c>
       <c r="G13">
-        <v>0.03946692239550492</v>
+        <v>0.0240496156998651</v>
       </c>
       <c r="H13">
-        <v>-0.03302111467802928</v>
+        <v>0.03612961181154069</v>
       </c>
       <c r="I13">
-        <v>0.03164633506029745</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>-0.01557912254350381</v>
+      </c>
+      <c r="J13">
+        <v>0.002701149124101263</v>
+      </c>
+      <c r="K13">
+        <v>0.03087890446250888</v>
+      </c>
+      <c r="L13">
+        <v>0.0993536406293249</v>
+      </c>
+      <c r="M13">
+        <v>0.008164511970169866</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>0.04258915656183897</v>
+        <v>0.04679900703141609</v>
       </c>
       <c r="C14">
-        <v>0.0237782318840897</v>
+        <v>-0.02899238317813032</v>
       </c>
       <c r="D14">
-        <v>0.02486933010574578</v>
+        <v>-0.008854157890623144</v>
       </c>
       <c r="E14">
-        <v>0.006263756167237869</v>
+        <v>-0.018428565796761</v>
       </c>
       <c r="F14">
-        <v>0.03147615693848064</v>
+        <v>-0.04621060416301187</v>
       </c>
       <c r="G14">
-        <v>-0.02852039773910467</v>
+        <v>0.01900095528698051</v>
       </c>
       <c r="H14">
-        <v>0.05669648936254757</v>
+        <v>0.07121052260803305</v>
       </c>
       <c r="I14">
-        <v>-0.04640449158058011</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>-0.01577786855477281</v>
+      </c>
+      <c r="J14">
+        <v>-0.02967714403945329</v>
+      </c>
+      <c r="K14">
+        <v>0.05891661982137164</v>
+      </c>
+      <c r="L14">
+        <v>0.05600967133030101</v>
+      </c>
+      <c r="M14">
+        <v>-0.02962836460910624</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>0.03767234815040822</v>
+        <v>0.03086956346482015</v>
       </c>
       <c r="C15">
-        <v>-0.004775333615659969</v>
+        <v>-0.009162498143509957</v>
       </c>
       <c r="D15">
-        <v>-0.004028118773664677</v>
+        <v>0.05936613184739933</v>
       </c>
       <c r="E15">
-        <v>-0.02174487193549758</v>
+        <v>-0.006404005854911434</v>
       </c>
       <c r="F15">
-        <v>0.01807288796088518</v>
+        <v>-0.002029211463714779</v>
       </c>
       <c r="G15">
-        <v>-0.005220615285611267</v>
+        <v>-0.038040358631608</v>
       </c>
       <c r="H15">
-        <v>-0.01039436347609427</v>
+        <v>0.03608656516812125</v>
       </c>
       <c r="I15">
-        <v>-0.0113197018238448</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.02632295168254908</v>
+      </c>
+      <c r="J15">
+        <v>-0.02221493636373222</v>
+      </c>
+      <c r="K15">
+        <v>0.05309914349864722</v>
+      </c>
+      <c r="L15">
+        <v>0.04273993319192213</v>
+      </c>
+      <c r="M15">
+        <v>0.002628564513202613</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>0.04897987905263812</v>
+        <v>0.06957841639873438</v>
       </c>
       <c r="C16">
-        <v>0.08577610356089697</v>
+        <v>-0.07767307924258078</v>
       </c>
       <c r="D16">
-        <v>0.02787366050727633</v>
+        <v>-0.02148997473413019</v>
       </c>
       <c r="E16">
-        <v>-0.02488771635022616</v>
+        <v>-0.01444229741235167</v>
       </c>
       <c r="F16">
-        <v>0.02306858068929377</v>
+        <v>-0.1081707547485099</v>
       </c>
       <c r="G16">
-        <v>0.02622148201029775</v>
+        <v>0.0253476685079456</v>
       </c>
       <c r="H16">
-        <v>0.007657458161952421</v>
+        <v>0.05137837433514775</v>
       </c>
       <c r="I16">
-        <v>0.1014142094845814</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>-0.06118222242341006</v>
+      </c>
+      <c r="J16">
+        <v>0.0472171810016799</v>
+      </c>
+      <c r="K16">
+        <v>-0.07580590178924755</v>
+      </c>
+      <c r="L16">
+        <v>0.01311125058015753</v>
+      </c>
+      <c r="M16">
+        <v>0.04597184895308305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1199,10 +1403,22 @@
       <c r="I17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1228,10 +1444,22 @@
       <c r="I18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1257,213 +1485,309 @@
       <c r="I19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>0.039263967157061</v>
+        <v>0.04237372605806887</v>
       </c>
       <c r="C20">
-        <v>0.04230950427723468</v>
+        <v>-0.02946505855633901</v>
       </c>
       <c r="D20">
-        <v>0.01829211576832324</v>
+        <v>0.02337951948709605</v>
       </c>
       <c r="E20">
-        <v>-0.01401140987046264</v>
+        <v>-0.02166578699025968</v>
       </c>
       <c r="F20">
-        <v>0.03585044347084515</v>
+        <v>-0.04649969029730419</v>
       </c>
       <c r="G20">
-        <v>0.02067153179099725</v>
+        <v>0.02196502938243948</v>
       </c>
       <c r="H20">
-        <v>0.001115120107824433</v>
+        <v>0.05127121838938826</v>
       </c>
       <c r="I20">
-        <v>0.03915783447082818</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>-0.04809842548179412</v>
+      </c>
+      <c r="J20">
+        <v>0.006077524162711515</v>
+      </c>
+      <c r="K20">
+        <v>0.02181221820851722</v>
+      </c>
+      <c r="L20">
+        <v>0.06249567061068562</v>
+      </c>
+      <c r="M20">
+        <v>0.03272055774078707</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>0.006575581096837529</v>
+        <v>0.02399261001450504</v>
       </c>
       <c r="C21">
-        <v>0.008630618357185196</v>
+        <v>-0.01735194971291846</v>
       </c>
       <c r="D21">
-        <v>-0.001999888977669666</v>
+        <v>0.01715014147447348</v>
       </c>
       <c r="E21">
-        <v>-0.07033766020465233</v>
+        <v>-0.01699638320884565</v>
       </c>
       <c r="F21">
-        <v>-0.04152733269952816</v>
+        <v>-0.04804460526244596</v>
       </c>
       <c r="G21">
-        <v>-0.08885820798083185</v>
+        <v>-0.09932527101582107</v>
       </c>
       <c r="H21">
-        <v>-0.02283335241091838</v>
+        <v>0.008603689812884795</v>
       </c>
       <c r="I21">
-        <v>-0.0573769141565942</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>-0.0469159633733236</v>
+      </c>
+      <c r="J21">
+        <v>-0.04263181338900579</v>
+      </c>
+      <c r="K21">
+        <v>0.04522401050425525</v>
+      </c>
+      <c r="L21">
+        <v>0.07795647552817093</v>
+      </c>
+      <c r="M21">
+        <v>0.01625224595351284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>0.01939478305463363</v>
+        <v>0.04265137146918956</v>
       </c>
       <c r="C22">
-        <v>0.05212530208075383</v>
+        <v>-0.03087532620099115</v>
       </c>
       <c r="D22">
-        <v>-0.1427276810106063</v>
+        <v>0.6550262148224005</v>
       </c>
       <c r="E22">
-        <v>-0.4839630489319513</v>
+        <v>-0.05302855853247666</v>
       </c>
       <c r="F22">
-        <v>0.1802663654103207</v>
+        <v>0.07683161110007171</v>
       </c>
       <c r="G22">
-        <v>-0.03218374305207364</v>
+        <v>0.06806252750989179</v>
       </c>
       <c r="H22">
-        <v>-0.2720821749878927</v>
+        <v>-0.06225675055326397</v>
       </c>
       <c r="I22">
-        <v>0.0162765575401011</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>-0.08947462657861679</v>
+      </c>
+      <c r="J22">
+        <v>-0.07187893199714773</v>
+      </c>
+      <c r="K22">
+        <v>-0.06392057827579058</v>
+      </c>
+      <c r="L22">
+        <v>-0.02520243694296625</v>
+      </c>
+      <c r="M22">
+        <v>-0.04116876217810652</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>0.02029408582071886</v>
+        <v>0.0433538497617645</v>
       </c>
       <c r="C23">
-        <v>0.05078729190038904</v>
+        <v>-0.03111688193167582</v>
       </c>
       <c r="D23">
-        <v>-0.1422883341827676</v>
+        <v>0.6566555630317543</v>
       </c>
       <c r="E23">
-        <v>-0.4852606495425749</v>
+        <v>-0.05402483523234757</v>
       </c>
       <c r="F23">
-        <v>0.176500961065088</v>
+        <v>0.07208654502838006</v>
       </c>
       <c r="G23">
-        <v>-0.03200220255476834</v>
+        <v>0.06829133276292298</v>
       </c>
       <c r="H23">
-        <v>-0.269240371670353</v>
+        <v>-0.06325165797078991</v>
       </c>
       <c r="I23">
-        <v>0.01477434524806697</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>-0.08863541595509741</v>
+      </c>
+      <c r="J23">
+        <v>-0.07124335469223919</v>
+      </c>
+      <c r="K23">
+        <v>-0.05947370560282979</v>
+      </c>
+      <c r="L23">
+        <v>-0.02939950381964089</v>
+      </c>
+      <c r="M23">
+        <v>-0.04205746532546426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>0.06822363396910537</v>
+        <v>0.07556857607551705</v>
       </c>
       <c r="C24">
-        <v>0.08089979811485049</v>
+        <v>-0.07497915967799794</v>
       </c>
       <c r="D24">
-        <v>0.04337834852220166</v>
+        <v>-0.01831348151254759</v>
       </c>
       <c r="E24">
-        <v>-0.0366080534833232</v>
+        <v>-0.01967966913721942</v>
       </c>
       <c r="F24">
-        <v>-0.01180773591740924</v>
+        <v>-0.1115287981347813</v>
       </c>
       <c r="G24">
-        <v>0.02584361041614418</v>
+        <v>0.0156554060721701</v>
       </c>
       <c r="H24">
-        <v>0.001683106595477682</v>
+        <v>0.03668059196882612</v>
       </c>
       <c r="I24">
-        <v>0.06040106632883115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>-0.05615001487554408</v>
+      </c>
+      <c r="J24">
+        <v>0.03473318843705935</v>
+      </c>
+      <c r="K24">
+        <v>-0.06359819501534869</v>
+      </c>
+      <c r="L24">
+        <v>-0.0181611757879868</v>
+      </c>
+      <c r="M24">
+        <v>0.06899008005147331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>0.05968498411200997</v>
+        <v>0.07233958974806563</v>
       </c>
       <c r="C25">
-        <v>0.03982006912975752</v>
+        <v>-0.04829569933878243</v>
       </c>
       <c r="D25">
-        <v>0.03551600430861191</v>
+        <v>-0.03268531828200551</v>
       </c>
       <c r="E25">
-        <v>-0.04175049833804372</v>
+        <v>-0.01756082864365075</v>
       </c>
       <c r="F25">
-        <v>0.008182778232372134</v>
+        <v>-0.1155541884744622</v>
       </c>
       <c r="G25">
-        <v>0.03422483404412217</v>
+        <v>0.03129499687778761</v>
       </c>
       <c r="H25">
-        <v>0.03272329567513636</v>
+        <v>0.05452867749907517</v>
       </c>
       <c r="I25">
-        <v>0.04244290535346193</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>-0.06437932491787225</v>
+      </c>
+      <c r="J25">
+        <v>0.04961931586387844</v>
+      </c>
+      <c r="K25">
+        <v>-0.06481250525191756</v>
+      </c>
+      <c r="L25">
+        <v>-0.03798226582351447</v>
+      </c>
+      <c r="M25">
+        <v>0.0604925965375465</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>0.03529911158016813</v>
+        <v>0.04117896218909729</v>
       </c>
       <c r="C26">
-        <v>0.02348400558552373</v>
+        <v>-0.02167618261437707</v>
       </c>
       <c r="D26">
-        <v>0.03924375678158975</v>
+        <v>0.01234500006051244</v>
       </c>
       <c r="E26">
-        <v>6.831132155038146e-05</v>
+        <v>-0.002689187973283972</v>
       </c>
       <c r="F26">
-        <v>0.04731071991927137</v>
+        <v>-0.03417614634384478</v>
       </c>
       <c r="G26">
-        <v>-0.009626430551013622</v>
+        <v>0.0007066603709267464</v>
       </c>
       <c r="H26">
-        <v>-0.01655545695647708</v>
+        <v>0.0482933327211944</v>
       </c>
       <c r="I26">
-        <v>0.02357130871140845</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>-0.01166815558673229</v>
+      </c>
+      <c r="J26">
+        <v>-0.07686742271579391</v>
+      </c>
+      <c r="K26">
+        <v>0.04238183875151567</v>
+      </c>
+      <c r="L26">
+        <v>0.1337269506756082</v>
+      </c>
+      <c r="M26">
+        <v>-0.03615358776482798</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1489,271 +1813,391 @@
       <c r="I27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>0.1183466053147898</v>
+        <v>0.1437797015593127</v>
       </c>
       <c r="C28">
-        <v>-0.2973136110610614</v>
+        <v>0.2878180378784069</v>
       </c>
       <c r="D28">
-        <v>0.02726279925782301</v>
+        <v>-0.006808721320195089</v>
       </c>
       <c r="E28">
-        <v>0.00752996770177153</v>
+        <v>-0.02378692441174299</v>
       </c>
       <c r="F28">
-        <v>0.008840593587420814</v>
+        <v>0.003932450001985906</v>
       </c>
       <c r="G28">
-        <v>-0.07104022794713317</v>
+        <v>-0.01798632973875628</v>
       </c>
       <c r="H28">
-        <v>0.01157769847574936</v>
+        <v>-0.01194779536121545</v>
       </c>
       <c r="I28">
-        <v>0.07498315005599848</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>-0.01539838386595535</v>
+      </c>
+      <c r="J28">
+        <v>0.0110170982156269</v>
+      </c>
+      <c r="K28">
+        <v>0.006118342310991448</v>
+      </c>
+      <c r="L28">
+        <v>0.0498531853255578</v>
+      </c>
+      <c r="M28">
+        <v>-0.03093340593040616</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>0.04756520118742311</v>
+        <v>0.04482829912519684</v>
       </c>
       <c r="C29">
-        <v>0.01355501142928689</v>
+        <v>-0.02314472130655281</v>
       </c>
       <c r="D29">
-        <v>0.01273542269112365</v>
+        <v>0.0007692309311913225</v>
       </c>
       <c r="E29">
-        <v>-0.02420740786037125</v>
+        <v>-0.02159306492876088</v>
       </c>
       <c r="F29">
-        <v>0.02394892620714797</v>
+        <v>-0.04674981599350007</v>
       </c>
       <c r="G29">
-        <v>-0.007573731209146504</v>
+        <v>0.03464566464780062</v>
       </c>
       <c r="H29">
-        <v>0.02451085819240531</v>
+        <v>0.05781799167062678</v>
       </c>
       <c r="I29">
-        <v>-0.003441487904223641</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>-0.01605260643735423</v>
+      </c>
+      <c r="J29">
+        <v>-0.02893352136587197</v>
+      </c>
+      <c r="K29">
+        <v>0.04278801636934572</v>
+      </c>
+      <c r="L29">
+        <v>0.03997544455105893</v>
+      </c>
+      <c r="M29">
+        <v>-0.01969160122334006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>0.1189639380631114</v>
+        <v>0.0997641618735173</v>
       </c>
       <c r="C30">
-        <v>0.07375687204371137</v>
+        <v>-0.06598246792672172</v>
       </c>
       <c r="D30">
-        <v>0.07169188147240223</v>
+        <v>-0.001440423240445936</v>
       </c>
       <c r="E30">
-        <v>-0.05284651534816288</v>
+        <v>-0.0337464111047502</v>
       </c>
       <c r="F30">
-        <v>0.02367611341597417</v>
+        <v>-0.1645603969457542</v>
       </c>
       <c r="G30">
-        <v>-0.03392031008202211</v>
+        <v>0.05166584337588707</v>
       </c>
       <c r="H30">
-        <v>0.0103475988265263</v>
+        <v>0.01166301934065775</v>
       </c>
       <c r="I30">
-        <v>0.07395662954280217</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>-0.279793099675849</v>
+      </c>
+      <c r="J30">
+        <v>-0.03293797958086033</v>
+      </c>
+      <c r="K30">
+        <v>0.02074496257067857</v>
+      </c>
+      <c r="L30">
+        <v>0.2291386516282583</v>
+      </c>
+      <c r="M30">
+        <v>-0.06273200725582845</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>0.04767118044910265</v>
+        <v>0.03505236064348646</v>
       </c>
       <c r="C31">
-        <v>0.0251720950422213</v>
+        <v>-0.04482040528172079</v>
       </c>
       <c r="D31">
-        <v>0.005403143047135133</v>
+        <v>0.006210311269509297</v>
       </c>
       <c r="E31">
-        <v>0.002473432591247234</v>
+        <v>0.003046847547860303</v>
       </c>
       <c r="F31">
-        <v>0.04596529213517522</v>
+        <v>-0.01474379906881143</v>
       </c>
       <c r="G31">
-        <v>0.009568829456460499</v>
+        <v>0.03095990490871023</v>
       </c>
       <c r="H31">
-        <v>-0.0270374592657899</v>
+        <v>0.05030521727638884</v>
       </c>
       <c r="I31">
-        <v>-0.003146516472080925</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.01123893464430038</v>
+      </c>
+      <c r="J31">
+        <v>0.02189471205932914</v>
+      </c>
+      <c r="K31">
+        <v>0.0204331511073482</v>
+      </c>
+      <c r="L31">
+        <v>0.02117900911614358</v>
+      </c>
+      <c r="M31">
+        <v>0.01721167747369903</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>0.02364192349369219</v>
+        <v>0.04781851331773916</v>
       </c>
       <c r="C32">
-        <v>-0.0026667032142305</v>
+        <v>0.002946781529930969</v>
       </c>
       <c r="D32">
-        <v>-0.04811157297540709</v>
+        <v>0.001927147486008168</v>
       </c>
       <c r="E32">
-        <v>-0.07585234225586532</v>
+        <v>0.00666331787778028</v>
       </c>
       <c r="F32">
-        <v>0.01427168676977103</v>
+        <v>-0.08609340796529526</v>
       </c>
       <c r="G32">
-        <v>0.03394823986068819</v>
+        <v>-0.02753118649137531</v>
       </c>
       <c r="H32">
-        <v>-0.04742278549496214</v>
+        <v>0.03943521596633036</v>
       </c>
       <c r="I32">
-        <v>0.09210491871592325</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>0.06716338758923175</v>
+      </c>
+      <c r="J32">
+        <v>0.03015826123426896</v>
+      </c>
+      <c r="K32">
+        <v>-0.01955688910457958</v>
+      </c>
+      <c r="L32">
+        <v>0.06616150504670328</v>
+      </c>
+      <c r="M32">
+        <v>-0.09038072689421216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>0.1005072600007115</v>
+        <v>0.09572472537502399</v>
       </c>
       <c r="C33">
-        <v>0.05693745995054381</v>
+        <v>-0.06544051363545533</v>
       </c>
       <c r="D33">
-        <v>0.009279692283894759</v>
+        <v>-0.008573814260832069</v>
       </c>
       <c r="E33">
-        <v>-0.001633861840828233</v>
+        <v>0.01528890676237635</v>
       </c>
       <c r="F33">
-        <v>0.03909340981478061</v>
+        <v>-0.0633038950792206</v>
       </c>
       <c r="G33">
-        <v>0.02667791045679179</v>
+        <v>0.03127590322543247</v>
       </c>
       <c r="H33">
-        <v>-0.01710527246016984</v>
+        <v>0.06017582373082967</v>
       </c>
       <c r="I33">
-        <v>0.03008119159629697</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>-0.02338487732580442</v>
+      </c>
+      <c r="J33">
+        <v>-0.03801507169020021</v>
+      </c>
+      <c r="K33">
+        <v>0.02397881282257203</v>
+      </c>
+      <c r="L33">
+        <v>0.01871047312137886</v>
+      </c>
+      <c r="M33">
+        <v>0.03332828076059905</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>0.05032626976365974</v>
+        <v>0.0632654276212299</v>
       </c>
       <c r="C34">
-        <v>0.07960119314462451</v>
+        <v>-0.06358188541651177</v>
       </c>
       <c r="D34">
-        <v>0.02348622835714233</v>
+        <v>-0.02830083649185675</v>
       </c>
       <c r="E34">
-        <v>-0.04192729982177747</v>
+        <v>-0.01245221005874092</v>
       </c>
       <c r="F34">
-        <v>0.007588892487586123</v>
+        <v>-0.09788855598964989</v>
       </c>
       <c r="G34">
-        <v>0.01890622339726032</v>
+        <v>0.01921583196467236</v>
       </c>
       <c r="H34">
-        <v>0.00973014342910318</v>
+        <v>0.05193245604146744</v>
       </c>
       <c r="I34">
-        <v>0.05531468223869664</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>-0.04197096396602117</v>
+      </c>
+      <c r="J34">
+        <v>0.03230335464014174</v>
+      </c>
+      <c r="K34">
+        <v>-0.04520023631111831</v>
+      </c>
+      <c r="L34">
+        <v>-0.01159010184809945</v>
+      </c>
+      <c r="M34">
+        <v>0.06876558521780453</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>0.03734195448357328</v>
+        <v>0.02905174838310631</v>
       </c>
       <c r="C35">
-        <v>0.02805294032632078</v>
+        <v>-0.02719912499034472</v>
       </c>
       <c r="D35">
-        <v>0.00975270521829967</v>
+        <v>0.001637892453394418</v>
       </c>
       <c r="E35">
-        <v>-0.02735570583349549</v>
+        <v>-0.002553615174266622</v>
       </c>
       <c r="F35">
-        <v>0.03314068711014018</v>
+        <v>-0.01886020498196952</v>
       </c>
       <c r="G35">
-        <v>0.01851915470304308</v>
+        <v>0.024451494587081</v>
       </c>
       <c r="H35">
-        <v>-0.02788676563067636</v>
+        <v>0.04171514679022956</v>
       </c>
       <c r="I35">
-        <v>0.04363535314879925</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>-0.04994909930775761</v>
+      </c>
+      <c r="J35">
+        <v>-0.005515799347903519</v>
+      </c>
+      <c r="K35">
+        <v>-0.01830955322403765</v>
+      </c>
+      <c r="L35">
+        <v>0.05788633507312202</v>
+      </c>
+      <c r="M35">
+        <v>-0.005521832948331739</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>0.02614994324313253</v>
+        <v>0.02935618732383246</v>
       </c>
       <c r="C36">
-        <v>0.01463817233797488</v>
+        <v>-0.01812457866413122</v>
       </c>
       <c r="D36">
-        <v>0.0291869124048296</v>
+        <v>0.01238880677068718</v>
       </c>
       <c r="E36">
-        <v>-0.02301697064083362</v>
+        <v>-0.01680848267520667</v>
       </c>
       <c r="F36">
-        <v>0.02992946284166207</v>
+        <v>-0.05423697609456143</v>
       </c>
       <c r="G36">
-        <v>0.0125823622597666</v>
+        <v>0.01235269600630945</v>
       </c>
       <c r="H36">
-        <v>-0.002235851207254145</v>
+        <v>0.04994222945071742</v>
       </c>
       <c r="I36">
-        <v>-0.006481136512058353</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>-0.03119387048573542</v>
+      </c>
+      <c r="J36">
+        <v>-0.02438403699276807</v>
+      </c>
+      <c r="K36">
+        <v>0.02430699273298973</v>
+      </c>
+      <c r="L36">
+        <v>0.04405997927231845</v>
+      </c>
+      <c r="M36">
+        <v>0.0275780578765288</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1779,126 +2223,186 @@
       <c r="I37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>0.04268522566045885</v>
+        <v>0.03235664802119784</v>
       </c>
       <c r="C38">
-        <v>0.03061767643019745</v>
+        <v>-0.04828423594346692</v>
       </c>
       <c r="D38">
-        <v>-0.02672175258521666</v>
+        <v>0.02488966472832198</v>
       </c>
       <c r="E38">
-        <v>-0.03614326343023432</v>
+        <v>0.001021646436906674</v>
       </c>
       <c r="F38">
-        <v>-0.002082979874595833</v>
+        <v>0.04208161813290376</v>
       </c>
       <c r="G38">
-        <v>0.003255829261789424</v>
+        <v>0.04788244582756767</v>
       </c>
       <c r="H38">
-        <v>-0.03858505934637557</v>
+        <v>-0.05194689333874084</v>
       </c>
       <c r="I38">
-        <v>0.04189574065801244</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.0214246072888755</v>
+      </c>
+      <c r="J38">
+        <v>-0.1157705307224775</v>
+      </c>
+      <c r="K38">
+        <v>-0.0182555621077529</v>
+      </c>
+      <c r="L38">
+        <v>0.07315293685562121</v>
+      </c>
+      <c r="M38">
+        <v>-0.06807139487188139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>0.09475058383580788</v>
+        <v>0.09546911247066596</v>
       </c>
       <c r="C39">
-        <v>0.106443565010459</v>
+        <v>-0.08662459234622305</v>
       </c>
       <c r="D39">
-        <v>0.01835666556903532</v>
+        <v>-0.07962671667719753</v>
       </c>
       <c r="E39">
-        <v>-0.02863395524283074</v>
+        <v>0.01597194469462193</v>
       </c>
       <c r="F39">
-        <v>-0.02859380509604578</v>
+        <v>-0.1452575504549974</v>
       </c>
       <c r="G39">
-        <v>0.02182324373574793</v>
+        <v>0.09200687892672421</v>
       </c>
       <c r="H39">
-        <v>0.01174231575487657</v>
+        <v>0.01704731310182604</v>
       </c>
       <c r="I39">
-        <v>0.1768976213489933</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>-0.1402796876671818</v>
+      </c>
+      <c r="J39">
+        <v>0.1117511215273178</v>
+      </c>
+      <c r="K39">
+        <v>-0.1646370769206167</v>
+      </c>
+      <c r="L39">
+        <v>0.04610766992850716</v>
+      </c>
+      <c r="M39">
+        <v>-0.01069791477235878</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>0.05714765972898572</v>
+        <v>0.03845928161056268</v>
       </c>
       <c r="C40">
-        <v>0.03786310076972502</v>
+        <v>-0.0564814842152994</v>
       </c>
       <c r="D40">
-        <v>-0.03500958335387766</v>
+        <v>0.05052214214772763</v>
       </c>
       <c r="E40">
-        <v>-0.1430696013138829</v>
+        <v>0.000602184085900814</v>
       </c>
       <c r="F40">
-        <v>0.03055881020493358</v>
+        <v>-0.1286825191766617</v>
       </c>
       <c r="G40">
-        <v>0.03560300575630854</v>
+        <v>-0.05541521019911404</v>
       </c>
       <c r="H40">
-        <v>-0.01509860785019303</v>
+        <v>0.01553930967014531</v>
       </c>
       <c r="I40">
-        <v>0.1662970303598202</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>-0.004555655564466605</v>
+      </c>
+      <c r="J40">
+        <v>-0.1208773181542561</v>
+      </c>
+      <c r="K40">
+        <v>-0.06354973173326103</v>
+      </c>
+      <c r="L40">
+        <v>0.1200053710015287</v>
+      </c>
+      <c r="M40">
+        <v>-0.01058008391480132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>0.0426015241188728</v>
+        <v>0.03530861625395215</v>
       </c>
       <c r="C41">
-        <v>0.05300305600694603</v>
+        <v>-0.03629991379922137</v>
       </c>
       <c r="D41">
-        <v>0.01095049974643173</v>
+        <v>-0.0183157859126471</v>
       </c>
       <c r="E41">
-        <v>0.001133514484488928</v>
+        <v>0.003151653556407764</v>
       </c>
       <c r="F41">
-        <v>0.01964083209311412</v>
+        <v>-0.01658295270526495</v>
       </c>
       <c r="G41">
-        <v>0.01859933038090618</v>
+        <v>0.02615252520273426</v>
       </c>
       <c r="H41">
-        <v>-0.01067768998053215</v>
+        <v>0.003948525854783663</v>
       </c>
       <c r="I41">
-        <v>0.05410126241884426</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>0.01036757546578981</v>
+      </c>
+      <c r="J41">
+        <v>-0.00980226449975484</v>
+      </c>
+      <c r="K41">
+        <v>-0.005791909321290784</v>
+      </c>
+      <c r="L41">
+        <v>0.04342321667266133</v>
+      </c>
+      <c r="M41">
+        <v>0.01724725443800453</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1924,68 +2428,104 @@
       <c r="I42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>0.05407351899511656</v>
+        <v>0.05094909102254432</v>
       </c>
       <c r="C43">
-        <v>0.04073367488938431</v>
+        <v>-0.04900553785802529</v>
       </c>
       <c r="D43">
-        <v>0.02811149798004667</v>
+        <v>0.01176123197391697</v>
       </c>
       <c r="E43">
-        <v>-0.01849022850054242</v>
+        <v>-0.01397189535490487</v>
       </c>
       <c r="F43">
-        <v>0.01436911760548863</v>
+        <v>-0.01673005949248101</v>
       </c>
       <c r="G43">
-        <v>-0.0002601303783335978</v>
+        <v>0.05885256280093659</v>
       </c>
       <c r="H43">
-        <v>-0.04943224591377551</v>
+        <v>-0.002399840376650112</v>
       </c>
       <c r="I43">
-        <v>0.0003845843304312408</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>-0.006310830753548672</v>
+      </c>
+      <c r="J43">
+        <v>0.007041559747812921</v>
+      </c>
+      <c r="K43">
+        <v>-0.003396911905938563</v>
+      </c>
+      <c r="L43">
+        <v>0.03105403448271607</v>
+      </c>
+      <c r="M43">
+        <v>0.02839771027224344</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>0.05037400674368914</v>
+        <v>0.08174066197800686</v>
       </c>
       <c r="C44">
-        <v>0.02539816740975244</v>
+        <v>-0.06215645584118229</v>
       </c>
       <c r="D44">
-        <v>0.06018728461692809</v>
+        <v>0.06599470234592596</v>
       </c>
       <c r="E44">
-        <v>-0.1251893281286544</v>
+        <v>-0.09240103746971048</v>
       </c>
       <c r="F44">
-        <v>0.004571412248860455</v>
+        <v>-0.1637734614810983</v>
       </c>
       <c r="G44">
-        <v>0.01915867759636324</v>
+        <v>0.009934062686420806</v>
       </c>
       <c r="H44">
-        <v>0.03882968247239379</v>
+        <v>0.08854026588383215</v>
       </c>
       <c r="I44">
-        <v>0.1015213374489486</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>-0.04982442814539532</v>
+      </c>
+      <c r="J44">
+        <v>-0.01753803238906479</v>
+      </c>
+      <c r="K44">
+        <v>-0.01474313188221794</v>
+      </c>
+      <c r="L44">
+        <v>0.06297052368096928</v>
+      </c>
+      <c r="M44">
+        <v>-0.04765692764238558</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2011,329 +2551,473 @@
       <c r="I45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>0.01984674101199171</v>
+        <v>0.03597585207129586</v>
       </c>
       <c r="C46">
-        <v>0.03936472562131705</v>
+        <v>-0.04073524023523409</v>
       </c>
       <c r="D46">
-        <v>0.01621232446492698</v>
+        <v>0.04601456594104641</v>
       </c>
       <c r="E46">
-        <v>-0.04422863317064007</v>
+        <v>-0.03810783934362555</v>
       </c>
       <c r="F46">
-        <v>0.00440695907686406</v>
+        <v>-0.02326180172848905</v>
       </c>
       <c r="G46">
-        <v>-0.00220363604367805</v>
+        <v>-0.008033642692443022</v>
       </c>
       <c r="H46">
-        <v>0.01068226297051612</v>
+        <v>0.0614511141749071</v>
       </c>
       <c r="I46">
-        <v>0.02779448281553814</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.004607263812282692</v>
+      </c>
+      <c r="J46">
+        <v>-0.05196616351924307</v>
+      </c>
+      <c r="K46">
+        <v>0.05730715754684926</v>
+      </c>
+      <c r="L46">
+        <v>0.05620144989614108</v>
+      </c>
+      <c r="M46">
+        <v>-0.006800989380620354</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>0.02907217301896914</v>
+        <v>0.045959846624559</v>
       </c>
       <c r="C47">
-        <v>0.001414490456975131</v>
+        <v>-0.02913539668344689</v>
       </c>
       <c r="D47">
-        <v>-0.009001560901813623</v>
+        <v>0.02116737933824098</v>
       </c>
       <c r="E47">
-        <v>-0.07187406502536954</v>
+        <v>-0.007850213851383741</v>
       </c>
       <c r="F47">
-        <v>0.02690192670183767</v>
+        <v>-0.0307459059328299</v>
       </c>
       <c r="G47">
-        <v>0.01730707073581264</v>
+        <v>0.02986405795982341</v>
       </c>
       <c r="H47">
-        <v>-0.003618489769458703</v>
+        <v>0.02618117018271187</v>
       </c>
       <c r="I47">
-        <v>-0.04308829659923713</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>-0.02766788237288538</v>
+      </c>
+      <c r="J47">
+        <v>-0.04108325298636534</v>
+      </c>
+      <c r="K47">
+        <v>0.02631144697902474</v>
+      </c>
+      <c r="L47">
+        <v>0.01768548980355417</v>
+      </c>
+      <c r="M47">
+        <v>0.04763208856270042</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>0.03338435113618581</v>
+        <v>0.04269252754054696</v>
       </c>
       <c r="C48">
-        <v>0.02378263799921103</v>
+        <v>-0.01855231313133195</v>
       </c>
       <c r="D48">
-        <v>0.005188594566428569</v>
+        <v>0.0132831085689401</v>
       </c>
       <c r="E48">
-        <v>-0.04711736807602773</v>
+        <v>-0.002865599103706843</v>
       </c>
       <c r="F48">
-        <v>0.03940564578302048</v>
+        <v>-0.05814270142437819</v>
       </c>
       <c r="G48">
-        <v>0.01041127640743826</v>
+        <v>-0.01945298854315928</v>
       </c>
       <c r="H48">
-        <v>-0.04230598089373954</v>
+        <v>0.0594092573556471</v>
       </c>
       <c r="I48">
-        <v>0.007644180163842201</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>-0.02675381401515198</v>
+      </c>
+      <c r="J48">
+        <v>-0.003280772495290682</v>
+      </c>
+      <c r="K48">
+        <v>-0.002783081525463163</v>
+      </c>
+      <c r="L48">
+        <v>0.05590634042940779</v>
+      </c>
+      <c r="M48">
+        <v>0.03712219431006664</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>0.1901451900038101</v>
+        <v>0.2230901228852877</v>
       </c>
       <c r="C49">
-        <v>0.127611820269386</v>
+        <v>-0.08722411959611021</v>
       </c>
       <c r="D49">
-        <v>0.08927965802659237</v>
+        <v>-0.06692847601251554</v>
       </c>
       <c r="E49">
-        <v>0.08158810591615126</v>
+        <v>-0.02850367392647056</v>
       </c>
       <c r="F49">
-        <v>-0.06286048305961831</v>
+        <v>0.2279633904473886</v>
       </c>
       <c r="G49">
-        <v>-0.1811157931874013</v>
+        <v>-0.1598393252393605</v>
       </c>
       <c r="H49">
-        <v>0.05184445369006888</v>
+        <v>-0.05204436606844701</v>
       </c>
       <c r="I49">
-        <v>-0.01509275384423226</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>-0.08724984878042344</v>
+      </c>
+      <c r="J49">
+        <v>-0.01391216337708549</v>
+      </c>
+      <c r="K49">
+        <v>-0.2096030979543624</v>
+      </c>
+      <c r="L49">
+        <v>-0.1455332289421063</v>
+      </c>
+      <c r="M49">
+        <v>0.008196187364242751</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>0.05511821281452826</v>
+        <v>0.04391931237638277</v>
       </c>
       <c r="C50">
-        <v>0.0313276804274901</v>
+        <v>-0.04309739670671906</v>
       </c>
       <c r="D50">
-        <v>0.008987786929662712</v>
+        <v>0.001548397218240347</v>
       </c>
       <c r="E50">
-        <v>-0.02342392661518955</v>
+        <v>0.007676301120508627</v>
       </c>
       <c r="F50">
-        <v>0.06485311475763264</v>
+        <v>-0.03863329789896672</v>
       </c>
       <c r="G50">
-        <v>0.0309214422152596</v>
+        <v>0.03842428388174547</v>
       </c>
       <c r="H50">
-        <v>0.007170578217081443</v>
+        <v>0.04549398829693767</v>
       </c>
       <c r="I50">
-        <v>-0.01890328094084881</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>-0.01264295941813617</v>
+      </c>
+      <c r="J50">
+        <v>-0.01391062283585028</v>
+      </c>
+      <c r="K50">
+        <v>0.05572409840923877</v>
+      </c>
+      <c r="L50">
+        <v>0.02504693087377081</v>
+      </c>
+      <c r="M50">
+        <v>-0.04055794470351495</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>0.02401914804220973</v>
+        <v>0.03047512901498611</v>
       </c>
       <c r="C51">
-        <v>0.01155533321625678</v>
+        <v>-0.005591569126990828</v>
       </c>
       <c r="D51">
-        <v>-0.007694631588761757</v>
+        <v>-0.002241266327249243</v>
       </c>
       <c r="E51">
-        <v>-0.01308189237538499</v>
+        <v>-0.01715609414223868</v>
       </c>
       <c r="F51">
-        <v>-0.02132983300302909</v>
+        <v>0.01702469689787228</v>
       </c>
       <c r="G51">
-        <v>-0.01301017221404203</v>
+        <v>0.002768376689931699</v>
       </c>
       <c r="H51">
-        <v>0.02276811281468515</v>
+        <v>-0.02605397790006724</v>
       </c>
       <c r="I51">
-        <v>0.02658058249933569</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>-0.01473294210006859</v>
+      </c>
+      <c r="J51">
+        <v>0.03823635452335597</v>
+      </c>
+      <c r="K51">
+        <v>-0.06012574350665074</v>
+      </c>
+      <c r="L51">
+        <v>-0.05499248566791159</v>
+      </c>
+      <c r="M51">
+        <v>0.01911452382218137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.008831279399468787</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.001310359261742718</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.0146252759719639</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.001454106633883298</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.002877977057810637</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.001700128648530878</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>0.001690278875510717</v>
       </c>
       <c r="I52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>-0.0007367297376721721</v>
+      </c>
+      <c r="J52">
+        <v>0.02753977053920881</v>
+      </c>
+      <c r="K52">
+        <v>0.002077766113708095</v>
+      </c>
+      <c r="L52">
+        <v>0.006107907754864151</v>
+      </c>
+      <c r="M52">
+        <v>-0.01539092655693112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>0.168005596704308</v>
+        <v>0.1547345544901014</v>
       </c>
       <c r="C53">
-        <v>0.01432103834975039</v>
+        <v>-0.04740426475878218</v>
       </c>
       <c r="D53">
-        <v>0.0376750633525031</v>
+        <v>-0.01755645451875447</v>
       </c>
       <c r="E53">
-        <v>0.05935138670401848</v>
+        <v>0.004555344167370228</v>
       </c>
       <c r="F53">
-        <v>0.05711819597184418</v>
+        <v>0.07149331896968386</v>
       </c>
       <c r="G53">
-        <v>0.2638612161969809</v>
+        <v>0.2100992323234</v>
       </c>
       <c r="H53">
-        <v>-0.009776171977486186</v>
+        <v>0.03377728243181295</v>
       </c>
       <c r="I53">
-        <v>-0.02955988256268212</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>0.1100922546532968</v>
+      </c>
+      <c r="J53">
+        <v>-0.02758119106393639</v>
+      </c>
+      <c r="K53">
+        <v>0.08747264067532767</v>
+      </c>
+      <c r="L53">
+        <v>-0.06980492983809622</v>
+      </c>
+      <c r="M53">
+        <v>-0.1048020251560645</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>0.04904050159674156</v>
+        <v>0.05665210206551517</v>
       </c>
       <c r="C54">
-        <v>0.03288349522435204</v>
+        <v>-0.03117959488806677</v>
       </c>
       <c r="D54">
-        <v>0.03252052765699202</v>
+        <v>0.02103112331565738</v>
       </c>
       <c r="E54">
-        <v>-0.03143471104925315</v>
+        <v>-0.02667928188853713</v>
       </c>
       <c r="F54">
-        <v>0.02416613465056658</v>
+        <v>-0.100164489643372</v>
       </c>
       <c r="G54">
-        <v>0.003616323821939247</v>
+        <v>-0.02394108626308225</v>
       </c>
       <c r="H54">
-        <v>-0.02067948799108961</v>
+        <v>0.07369909148581361</v>
       </c>
       <c r="I54">
-        <v>0.007102398645273348</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>0.007253888436896775</v>
+      </c>
+      <c r="J54">
+        <v>-0.01275117999080759</v>
+      </c>
+      <c r="K54">
+        <v>0.10168061895092</v>
+      </c>
+      <c r="L54">
+        <v>0.09666728720037933</v>
+      </c>
+      <c r="M54">
+        <v>0.02454742319199639</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>0.09350897651028232</v>
+        <v>0.08660194763459371</v>
       </c>
       <c r="C55">
-        <v>0.005031515175907966</v>
+        <v>-0.03782456310783874</v>
       </c>
       <c r="D55">
-        <v>0.03026735416142337</v>
+        <v>-0.02637933421428194</v>
       </c>
       <c r="E55">
-        <v>-0.001988662515207604</v>
+        <v>-0.007005162437405591</v>
       </c>
       <c r="F55">
-        <v>0.07101529560103825</v>
+        <v>-0.004873267981899484</v>
       </c>
       <c r="G55">
-        <v>0.2219719324256634</v>
+        <v>0.1509571853136767</v>
       </c>
       <c r="H55">
-        <v>0.007889400514239144</v>
+        <v>0.04747958233600578</v>
       </c>
       <c r="I55">
-        <v>-0.03253978997273135</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>0.06718960497494907</v>
+      </c>
+      <c r="J55">
+        <v>-0.02053224878532061</v>
+      </c>
+      <c r="K55">
+        <v>0.0501617492917393</v>
+      </c>
+      <c r="L55">
+        <v>-0.05101438829571908</v>
+      </c>
+      <c r="M55">
+        <v>-0.05861414490696572</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>0.169726111690056</v>
+        <v>0.1472096081236564</v>
       </c>
       <c r="C56">
-        <v>0.015095266625085</v>
+        <v>-0.06877575588984468</v>
       </c>
       <c r="D56">
-        <v>0.0583772018337847</v>
+        <v>-0.03079703286127553</v>
       </c>
       <c r="E56">
-        <v>0.05307756570569899</v>
+        <v>-0.008566529332659436</v>
       </c>
       <c r="F56">
-        <v>0.05094094244132177</v>
+        <v>0.0377523624389957</v>
       </c>
       <c r="G56">
-        <v>0.2374781869000532</v>
+        <v>0.2188116711093935</v>
       </c>
       <c r="H56">
-        <v>-0.04769244860690068</v>
+        <v>0.00903526036824449</v>
       </c>
       <c r="I56">
-        <v>-0.0545503671264398</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>0.1364832190666745</v>
+      </c>
+      <c r="J56">
+        <v>-0.03428106972525945</v>
+      </c>
+      <c r="K56">
+        <v>0.06197164557339791</v>
+      </c>
+      <c r="L56">
+        <v>-0.04615433674447889</v>
+      </c>
+      <c r="M56">
+        <v>-0.06430033458570761</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2359,1112 +3043,1580 @@
       <c r="I57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>0.04673592102239254</v>
+        <v>0.03968370045366611</v>
       </c>
       <c r="C58">
-        <v>0.04060819855542049</v>
+        <v>-0.03276695641563642</v>
       </c>
       <c r="D58">
-        <v>0.02332531454906499</v>
+        <v>0.08453234158910257</v>
       </c>
       <c r="E58">
-        <v>-0.320285645773691</v>
+        <v>-0.03441172583593867</v>
       </c>
       <c r="F58">
-        <v>0.1009639398793394</v>
+        <v>-0.0361602816923603</v>
       </c>
       <c r="G58">
-        <v>-0.1868941936887264</v>
+        <v>-0.04927546441451119</v>
       </c>
       <c r="H58">
-        <v>0.01452488746202141</v>
+        <v>0.073041124466281</v>
       </c>
       <c r="I58">
-        <v>-0.07307897205193685</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>-0.2872460818868192</v>
+      </c>
+      <c r="J58">
+        <v>0.2224832430322736</v>
+      </c>
+      <c r="K58">
+        <v>-0.03463796795988935</v>
+      </c>
+      <c r="L58">
+        <v>0.01139529169054052</v>
+      </c>
+      <c r="M58">
+        <v>0.3428898733598945</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>0.2479785347057569</v>
+        <v>0.2299456795070146</v>
       </c>
       <c r="C59">
-        <v>-0.4094650956859262</v>
+        <v>0.3013707621665453</v>
       </c>
       <c r="D59">
-        <v>0.02360320318204294</v>
+        <v>-0.03731047734667257</v>
       </c>
       <c r="E59">
-        <v>-0.0298913782921849</v>
+        <v>-0.003727443092881969</v>
       </c>
       <c r="F59">
-        <v>-0.06880650906511365</v>
+        <v>-0.02744016202375754</v>
       </c>
       <c r="G59">
-        <v>0.05658181263222749</v>
+        <v>0.06272068188178317</v>
       </c>
       <c r="H59">
-        <v>-0.03100707858711413</v>
+        <v>-0.03014499739412496</v>
       </c>
       <c r="I59">
-        <v>0.06082238151656816</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>0.1148053891139419</v>
+      </c>
+      <c r="J59">
+        <v>0.05777910978661462</v>
+      </c>
+      <c r="K59">
+        <v>-0.04359749213771273</v>
+      </c>
+      <c r="L59">
+        <v>-0.02943883813914933</v>
+      </c>
+      <c r="M59">
+        <v>0.01545332940620184</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>0.2464045337382162</v>
+        <v>0.2415380189756966</v>
       </c>
       <c r="C60">
-        <v>0.07170410936572438</v>
+        <v>-0.1168236701780337</v>
       </c>
       <c r="D60">
-        <v>0.09201359005780438</v>
+        <v>-0.06691502462959037</v>
       </c>
       <c r="E60">
-        <v>-0.02068982619494266</v>
+        <v>-0.04002394866871811</v>
       </c>
       <c r="F60">
-        <v>-0.05356607439805686</v>
+        <v>0.1077395154191351</v>
       </c>
       <c r="G60">
-        <v>-0.06515882902780486</v>
+        <v>-0.03609264587091583</v>
       </c>
       <c r="H60">
-        <v>0.06068528091421262</v>
+        <v>-0.1197102984567415</v>
       </c>
       <c r="I60">
-        <v>-0.09874571824614296</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>-0.006288612009957405</v>
+      </c>
+      <c r="J60">
+        <v>0.003428935292314029</v>
+      </c>
+      <c r="K60">
+        <v>0.03796461376380594</v>
+      </c>
+      <c r="L60">
+        <v>-0.1954131450901708</v>
+      </c>
+      <c r="M60">
+        <v>-0.006571782702294899</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>0.08010767648734012</v>
+        <v>0.08904535825373741</v>
       </c>
       <c r="C61">
-        <v>0.05851164923767765</v>
+        <v>-0.06167354005733408</v>
       </c>
       <c r="D61">
-        <v>0.02303987799210227</v>
+        <v>-0.04368066731735503</v>
       </c>
       <c r="E61">
-        <v>-0.004114593664462945</v>
+        <v>-0.01362325991519502</v>
       </c>
       <c r="F61">
-        <v>0.0165476949656863</v>
+        <v>-0.109171262439926</v>
       </c>
       <c r="G61">
-        <v>0.008515559394623633</v>
+        <v>0.07464423865671309</v>
       </c>
       <c r="H61">
-        <v>0.002932185462932506</v>
+        <v>0.03677355107598699</v>
       </c>
       <c r="I61">
-        <v>0.08844837997099522</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>-0.05589371689675174</v>
+      </c>
+      <c r="J61">
+        <v>0.04057842023902182</v>
+      </c>
+      <c r="K61">
+        <v>-0.07066393313679636</v>
+      </c>
+      <c r="L61">
+        <v>0.05020560855131042</v>
+      </c>
+      <c r="M61">
+        <v>-0.008168423218901431</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>0.1652222774996298</v>
+        <v>0.1460690673953232</v>
       </c>
       <c r="C62">
-        <v>0.05439337867822879</v>
+        <v>-0.07842865507130967</v>
       </c>
       <c r="D62">
-        <v>0.02846783144714499</v>
+        <v>-0.03272302526004862</v>
       </c>
       <c r="E62">
-        <v>0.09805327425433824</v>
+        <v>0.0231543721599402</v>
       </c>
       <c r="F62">
-        <v>0.03241492746492938</v>
+        <v>0.02310465517281244</v>
       </c>
       <c r="G62">
-        <v>0.2498735221626529</v>
+        <v>0.1612347248401379</v>
       </c>
       <c r="H62">
-        <v>-0.01910706216919684</v>
+        <v>0.0518550338841712</v>
       </c>
       <c r="I62">
-        <v>0.02147659566765553</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>0.1248221063511275</v>
+      </c>
+      <c r="J62">
+        <v>-0.1104596347464653</v>
+      </c>
+      <c r="K62">
+        <v>0.09938592108448641</v>
+      </c>
+      <c r="L62">
+        <v>-0.06003407995955676</v>
+      </c>
+      <c r="M62">
+        <v>-0.08830095254358022</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>0.0444830060635495</v>
+        <v>0.04472327137421987</v>
       </c>
       <c r="C63">
-        <v>0.03821337378496523</v>
+        <v>-0.02704393428737088</v>
       </c>
       <c r="D63">
-        <v>0.02502230217151242</v>
+        <v>-0.006264991485031179</v>
       </c>
       <c r="E63">
-        <v>-0.01236431508493067</v>
+        <v>0.008079765314775954</v>
       </c>
       <c r="F63">
-        <v>0.03872002096094651</v>
+        <v>-0.05871763295964058</v>
       </c>
       <c r="G63">
-        <v>0.02679404458188727</v>
+        <v>0.01022100881796284</v>
       </c>
       <c r="H63">
-        <v>0.0445056471878652</v>
+        <v>0.04221639453158543</v>
       </c>
       <c r="I63">
-        <v>-0.003781673589962462</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>-0.05091915249411778</v>
+      </c>
+      <c r="J63">
+        <v>-0.005006707672397814</v>
+      </c>
+      <c r="K63">
+        <v>0.04162055821859479</v>
+      </c>
+      <c r="L63">
+        <v>0.01899947172351057</v>
+      </c>
+      <c r="M63">
+        <v>-0.008510477437672829</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>0.1014284701513754</v>
+        <v>0.1012796272282274</v>
       </c>
       <c r="C64">
-        <v>0.03358416178074878</v>
+        <v>-0.04938972267178195</v>
       </c>
       <c r="D64">
-        <v>0.03988628856619685</v>
+        <v>0.00109936407544612</v>
       </c>
       <c r="E64">
-        <v>-0.03607885212317795</v>
+        <v>-0.03753139588882363</v>
       </c>
       <c r="F64">
-        <v>0.01796814563919373</v>
+        <v>-0.05565597243799217</v>
       </c>
       <c r="G64">
-        <v>-0.02642461389364625</v>
+        <v>0.009412060733630084</v>
       </c>
       <c r="H64">
-        <v>0.03075581028170031</v>
+        <v>-0.0002566154136158054</v>
       </c>
       <c r="I64">
-        <v>0.09035980215994059</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>-0.08665500909022959</v>
+      </c>
+      <c r="J64">
+        <v>0.002639009673698268</v>
+      </c>
+      <c r="K64">
+        <v>-0.003267437335099943</v>
+      </c>
+      <c r="L64">
+        <v>0.04529184766094693</v>
+      </c>
+      <c r="M64">
+        <v>-0.05483006004682291</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>0.1270566292204304</v>
+        <v>0.1232844689730538</v>
       </c>
       <c r="C65">
-        <v>0.05540312160151104</v>
+        <v>-0.04153882772823125</v>
       </c>
       <c r="D65">
-        <v>0.05888579495343937</v>
+        <v>-0.01123538331255009</v>
       </c>
       <c r="E65">
-        <v>-0.1269062728881973</v>
+        <v>-0.01240289939952682</v>
       </c>
       <c r="F65">
-        <v>0.07827135908923356</v>
+        <v>-0.03736664566824825</v>
       </c>
       <c r="G65">
-        <v>-0.1532412981680654</v>
+        <v>-0.1885425683529001</v>
       </c>
       <c r="H65">
-        <v>0.2821916088282869</v>
+        <v>-0.03917866119254806</v>
       </c>
       <c r="I65">
-        <v>-0.5921819021957879</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>-0.2090753423370061</v>
+      </c>
+      <c r="J65">
+        <v>-0.1100355059693621</v>
+      </c>
+      <c r="K65">
+        <v>0.5773534627209639</v>
+      </c>
+      <c r="L65">
+        <v>-0.2515621544118716</v>
+      </c>
+      <c r="M65">
+        <v>0.09190313479952333</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>0.1560316467734026</v>
+        <v>0.1246243726725738</v>
       </c>
       <c r="C66">
-        <v>0.155798929509256</v>
+        <v>-0.131104776871663</v>
       </c>
       <c r="D66">
-        <v>0.04904423800643509</v>
+        <v>-0.1040928554452265</v>
       </c>
       <c r="E66">
-        <v>0.01462214395294213</v>
+        <v>0.02553850899377633</v>
       </c>
       <c r="F66">
-        <v>-0.06194423097149601</v>
+        <v>-0.1622940813278176</v>
       </c>
       <c r="G66">
-        <v>0.04224611926062256</v>
+        <v>0.09744333741604072</v>
       </c>
       <c r="H66">
-        <v>0.03167097540027998</v>
+        <v>0.02567294789120382</v>
       </c>
       <c r="I66">
-        <v>0.3666367334726127</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>-0.11856794260688</v>
+      </c>
+      <c r="J66">
+        <v>0.07972863435849419</v>
+      </c>
+      <c r="K66">
+        <v>-0.2328971032841826</v>
+      </c>
+      <c r="L66">
+        <v>0.05275338471660088</v>
+      </c>
+      <c r="M66">
+        <v>-0.04930400616765652</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>0.07536411367358058</v>
+        <v>0.08238694719091845</v>
       </c>
       <c r="C67">
-        <v>0.04727803129223267</v>
+        <v>-0.06384934251139036</v>
       </c>
       <c r="D67">
-        <v>0.0119593635153101</v>
+        <v>0.0170294206244768</v>
       </c>
       <c r="E67">
-        <v>-0.004787810076586644</v>
+        <v>-0.0221028077784145</v>
       </c>
       <c r="F67">
-        <v>-0.01448657152288331</v>
+        <v>0.02648415477950936</v>
       </c>
       <c r="G67">
-        <v>-0.007163636920020272</v>
+        <v>0.09101883346636053</v>
       </c>
       <c r="H67">
-        <v>-0.04274064545771133</v>
+        <v>-0.0941095341034543</v>
       </c>
       <c r="I67">
-        <v>0.04908270536385521</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>0.02767387661893212</v>
+      </c>
+      <c r="J67">
+        <v>-0.09729002654073762</v>
+      </c>
+      <c r="K67">
+        <v>-0.04601192322512092</v>
+      </c>
+      <c r="L67">
+        <v>0.04707270405329671</v>
+      </c>
+      <c r="M67">
+        <v>-0.044673560989238</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>0.1034690319128556</v>
+        <v>0.12337635973614</v>
       </c>
       <c r="C68">
-        <v>-0.269711934832406</v>
+        <v>0.2734254334439903</v>
       </c>
       <c r="D68">
-        <v>-0.005966328669614823</v>
+        <v>-0.005908828753883017</v>
       </c>
       <c r="E68">
-        <v>-0.01443475148087343</v>
+        <v>-0.0005344474696198058</v>
       </c>
       <c r="F68">
-        <v>0.03669891471759774</v>
+        <v>-0.01894895692259934</v>
       </c>
       <c r="G68">
-        <v>0.02058878145727003</v>
+        <v>0.02818132883039171</v>
       </c>
       <c r="H68">
-        <v>-0.01005408525245901</v>
+        <v>0.02148169975336529</v>
       </c>
       <c r="I68">
-        <v>-0.02186548002454811</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>-0.04096935057267629</v>
+      </c>
+      <c r="J68">
+        <v>-0.00479598253197156</v>
+      </c>
+      <c r="K68">
+        <v>0.05815172746647768</v>
+      </c>
+      <c r="L68">
+        <v>0.010031277158363</v>
+      </c>
+      <c r="M68">
+        <v>-0.01355224885698125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>0.04258934270107953</v>
+        <v>0.0440426595153283</v>
       </c>
       <c r="C69">
-        <v>0.02933399894470285</v>
+        <v>-0.02340739428290197</v>
       </c>
       <c r="D69">
-        <v>0.007281128748930187</v>
+        <v>0.01244325798944136</v>
       </c>
       <c r="E69">
-        <v>-0.0192404177081549</v>
+        <v>0.004366235038816486</v>
       </c>
       <c r="F69">
-        <v>-0.02693223383312775</v>
+        <v>-0.01451060330640111</v>
       </c>
       <c r="G69">
-        <v>0.04381999935073193</v>
+        <v>0.04466617886932055</v>
       </c>
       <c r="H69">
-        <v>-0.0140215973950984</v>
+        <v>-0.01059935447208137</v>
       </c>
       <c r="I69">
-        <v>-0.02507314806587313</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>0.002695510859214048</v>
+      </c>
+      <c r="J69">
+        <v>-0.03567753641870642</v>
+      </c>
+      <c r="K69">
+        <v>-0.001887547300519659</v>
+      </c>
+      <c r="L69">
+        <v>-0.002964041991863673</v>
+      </c>
+      <c r="M69">
+        <v>0.05787156923147937</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>0.0442143760447898</v>
+        <v>0.05249845582084752</v>
       </c>
       <c r="C70">
-        <v>0.006696663612425644</v>
+        <v>-0.03738926600275597</v>
       </c>
       <c r="D70">
-        <v>0.02258725195431437</v>
+        <v>-0.02529809300395396</v>
       </c>
       <c r="E70">
-        <v>0.03856506938909445</v>
+        <v>-0.01019888499579435</v>
       </c>
       <c r="F70">
-        <v>-0.0478496814430719</v>
+        <v>0.0003641638116786733</v>
       </c>
       <c r="G70">
-        <v>-0.11273819196637</v>
+        <v>-0.07640580196569152</v>
       </c>
       <c r="H70">
-        <v>-0.05724183813630934</v>
+        <v>-0.02584419681710561</v>
       </c>
       <c r="I70">
-        <v>-0.02475489850195355</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>0.08660694282305409</v>
+      </c>
+      <c r="J70">
+        <v>-0.1405709370897981</v>
+      </c>
+      <c r="K70">
+        <v>0.04901666029121222</v>
+      </c>
+      <c r="L70">
+        <v>0.2672290415677865</v>
+      </c>
+      <c r="M70">
+        <v>0.1868589909191311</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>0.1059169630080724</v>
+        <v>0.1360784661802035</v>
       </c>
       <c r="C71">
-        <v>-0.279017277312856</v>
+        <v>0.2818802771936145</v>
       </c>
       <c r="D71">
-        <v>0.02232271487971983</v>
+        <v>-0.008597195207175804</v>
       </c>
       <c r="E71">
-        <v>-0.001169603289678279</v>
+        <v>-0.01850434735139567</v>
       </c>
       <c r="F71">
-        <v>0.02577259100284082</v>
+        <v>-0.02376762109494659</v>
       </c>
       <c r="G71">
-        <v>-0.005352244570066557</v>
+        <v>0.03105936582522982</v>
       </c>
       <c r="H71">
-        <v>-0.01399458676752302</v>
+        <v>0.01512399485776289</v>
       </c>
       <c r="I71">
-        <v>0.005833404914270937</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>-0.04103510405717879</v>
+      </c>
+      <c r="J71">
+        <v>-0.01024662725683423</v>
+      </c>
+      <c r="K71">
+        <v>0.005866726633923904</v>
+      </c>
+      <c r="L71">
+        <v>0.003033068694795186</v>
+      </c>
+      <c r="M71">
+        <v>-0.006727066527028478</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>0.1838769256571184</v>
+        <v>0.1439744339748555</v>
       </c>
       <c r="C72">
-        <v>0.04701284937503121</v>
+        <v>-0.03598262728484895</v>
       </c>
       <c r="D72">
-        <v>-0.2179141718945759</v>
+        <v>0.001740008182046573</v>
       </c>
       <c r="E72">
-        <v>0.03529376662429697</v>
+        <v>0.1812446407455445</v>
       </c>
       <c r="F72">
-        <v>-0.03518952931149368</v>
+        <v>-0.05355527616215432</v>
       </c>
       <c r="G72">
-        <v>0.01523289489688041</v>
+        <v>0.008134133079417094</v>
       </c>
       <c r="H72">
-        <v>0.1239577295923335</v>
+        <v>-0.04771886646460659</v>
       </c>
       <c r="I72">
-        <v>-0.06692387774067156</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>0.007802256723525859</v>
+      </c>
+      <c r="J72">
+        <v>-0.04358497704041338</v>
+      </c>
+      <c r="K72">
+        <v>0.1290984564798853</v>
+      </c>
+      <c r="L72">
+        <v>-0.1186673849748123</v>
+      </c>
+      <c r="M72">
+        <v>-0.01373685124697777</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>0.2657382153444914</v>
+        <v>0.2360727412400946</v>
       </c>
       <c r="C73">
-        <v>0.1830410552792293</v>
+        <v>-0.158096292124342</v>
       </c>
       <c r="D73">
-        <v>0.1545934838507808</v>
+        <v>-0.152446447410523</v>
       </c>
       <c r="E73">
-        <v>0.04320088606834236</v>
+        <v>-0.0914152616976832</v>
       </c>
       <c r="F73">
-        <v>0.07497396586896315</v>
+        <v>0.3845714260538508</v>
       </c>
       <c r="G73">
-        <v>-0.186152113665611</v>
+        <v>-0.1159915509140373</v>
       </c>
       <c r="H73">
-        <v>0.1634966352213912</v>
+        <v>-0.1928097901540474</v>
       </c>
       <c r="I73">
-        <v>-0.1118522986189838</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>-0.318232800909473</v>
+      </c>
+      <c r="J73">
+        <v>-0.004006037249909251</v>
+      </c>
+      <c r="K73">
+        <v>-0.2934763438743919</v>
+      </c>
+      <c r="L73">
+        <v>-0.2675183235486641</v>
+      </c>
+      <c r="M73">
+        <v>-0.1250229269737588</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>0.09031642235156083</v>
+        <v>0.08751506376287631</v>
       </c>
       <c r="C74">
-        <v>0.02785561779560647</v>
+        <v>-0.06541713221983074</v>
       </c>
       <c r="D74">
-        <v>0.02508235759016052</v>
+        <v>-0.008752527495558847</v>
       </c>
       <c r="E74">
-        <v>0.01342330871288908</v>
+        <v>0.005955710769736438</v>
       </c>
       <c r="F74">
-        <v>0.1067439752084873</v>
+        <v>0.03572290962041433</v>
       </c>
       <c r="G74">
-        <v>0.1372070341015625</v>
+        <v>0.1490426049177674</v>
       </c>
       <c r="H74">
-        <v>0.01658172798412113</v>
+        <v>0.03426091355699731</v>
       </c>
       <c r="I74">
-        <v>-0.03872852599813716</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>-0.001155935349269645</v>
+      </c>
+      <c r="J74">
+        <v>-0.04034342105721193</v>
+      </c>
+      <c r="K74">
+        <v>0.01587397739126716</v>
+      </c>
+      <c r="L74">
+        <v>-0.04172613509452376</v>
+      </c>
+      <c r="M74">
+        <v>-0.04322170464849977</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>0.1012731279007048</v>
+        <v>0.09178895911375208</v>
       </c>
       <c r="C75">
-        <v>0.01835545059840548</v>
+        <v>-0.05058254623396296</v>
       </c>
       <c r="D75">
-        <v>0.02829573861240923</v>
+        <v>-0.009199677122235227</v>
       </c>
       <c r="E75">
-        <v>0.02428645203788431</v>
+        <v>0.008767303016558332</v>
       </c>
       <c r="F75">
-        <v>-0.01492833896404551</v>
+        <v>0.02329534724302807</v>
       </c>
       <c r="G75">
-        <v>0.1195762092795325</v>
+        <v>0.1086191812455592</v>
       </c>
       <c r="H75">
-        <v>-0.05742083379871638</v>
+        <v>0.006232467876341257</v>
       </c>
       <c r="I75">
-        <v>-0.08098209138668032</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>0.09848510488063095</v>
+      </c>
+      <c r="J75">
+        <v>-0.005101015527930148</v>
+      </c>
+      <c r="K75">
+        <v>0.02273126250026052</v>
+      </c>
+      <c r="L75">
+        <v>-0.02009520043596272</v>
+      </c>
+      <c r="M75">
+        <v>0.05591523283787041</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>0.1290885933573294</v>
+        <v>0.09868152094902148</v>
       </c>
       <c r="C76">
-        <v>0.034939447347506</v>
+        <v>-0.07206753737246958</v>
       </c>
       <c r="D76">
-        <v>0.02657957002800507</v>
+        <v>-0.006386594341539386</v>
       </c>
       <c r="E76">
-        <v>-0.0008940179702890062</v>
+        <v>-0.01224334935686345</v>
       </c>
       <c r="F76">
-        <v>0.05722669490755673</v>
+        <v>0.05357920937928561</v>
       </c>
       <c r="G76">
-        <v>0.2417283230625806</v>
+        <v>0.1992108437662434</v>
       </c>
       <c r="H76">
-        <v>-0.02500332093520247</v>
+        <v>0.03066816921574295</v>
       </c>
       <c r="I76">
-        <v>-0.09205220506199287</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>0.1000420640633684</v>
+      </c>
+      <c r="J76">
+        <v>-0.02115697553447344</v>
+      </c>
+      <c r="K76">
+        <v>0.07052788820993855</v>
+      </c>
+      <c r="L76">
+        <v>-0.04063215224839558</v>
+      </c>
+      <c r="M76">
+        <v>-0.1282371048240393</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>0.07954087410995177</v>
+        <v>0.07207546976946921</v>
       </c>
       <c r="C77">
-        <v>0.03443140727049784</v>
+        <v>-0.0206779751211438</v>
       </c>
       <c r="D77">
-        <v>-0.03965980324200677</v>
+        <v>-0.004871190108678966</v>
       </c>
       <c r="E77">
-        <v>-0.3053973987119828</v>
+        <v>-0.03445581518373986</v>
       </c>
       <c r="F77">
-        <v>-0.7428571287259421</v>
+        <v>-0.4927539654229558</v>
       </c>
       <c r="G77">
-        <v>0.08014375110444465</v>
+        <v>-0.1560348283297991</v>
       </c>
       <c r="H77">
-        <v>0.3000114196654918</v>
+        <v>-0.6831017903173605</v>
       </c>
       <c r="I77">
-        <v>0.09960188404828488</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>0.1898737255720128</v>
+      </c>
+      <c r="J77">
+        <v>-0.0925624477952746</v>
+      </c>
+      <c r="K77">
+        <v>-0.07891600128725798</v>
+      </c>
+      <c r="L77">
+        <v>-0.07623415999578007</v>
+      </c>
+      <c r="M77">
+        <v>-0.1838402730429103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>0.13174297319741</v>
+        <v>0.1716986954017538</v>
       </c>
       <c r="C78">
-        <v>0.08760103932516393</v>
+        <v>-0.120787470274263</v>
       </c>
       <c r="D78">
-        <v>0.02342077699638642</v>
+        <v>0.1742038241084396</v>
       </c>
       <c r="E78">
-        <v>-0.144357291235832</v>
+        <v>-0.1158258161233181</v>
       </c>
       <c r="F78">
-        <v>0.04087938910404529</v>
+        <v>-0.1230024040281705</v>
       </c>
       <c r="G78">
-        <v>-0.06701545704363499</v>
+        <v>-0.2796388479232675</v>
       </c>
       <c r="H78">
-        <v>-0.03581079701742197</v>
+        <v>0.2043368017230432</v>
       </c>
       <c r="I78">
-        <v>0.09181289790742778</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>0.3731897118065541</v>
+      </c>
+      <c r="J78">
+        <v>0.6557488261318785</v>
+      </c>
+      <c r="K78">
+        <v>0.01627136745814622</v>
+      </c>
+      <c r="L78">
+        <v>-0.2092951403871504</v>
+      </c>
+      <c r="M78">
+        <v>-0.0773701100075789</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>0.1437876249851863</v>
+        <v>0.1352424341300412</v>
       </c>
       <c r="C79">
-        <v>0.05384723950749574</v>
+        <v>-0.07434852061190989</v>
       </c>
       <c r="D79">
-        <v>0.03570522591563</v>
+        <v>-0.003517042124485727</v>
       </c>
       <c r="E79">
-        <v>0.03815778860847098</v>
+        <v>-0.004193331092226426</v>
       </c>
       <c r="F79">
-        <v>0.01717891959031997</v>
+        <v>0.003961924242913896</v>
       </c>
       <c r="G79">
-        <v>0.1727899412660912</v>
+        <v>0.1609476659111196</v>
       </c>
       <c r="H79">
-        <v>-0.05589704221348916</v>
+        <v>0.02269509721481133</v>
       </c>
       <c r="I79">
-        <v>-0.04285453560107513</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>0.08841210874620885</v>
+      </c>
+      <c r="J79">
+        <v>-0.06968893836852177</v>
+      </c>
+      <c r="K79">
+        <v>0.05607468041492819</v>
+      </c>
+      <c r="L79">
+        <v>-0.04205417992918788</v>
+      </c>
+      <c r="M79">
+        <v>-0.02135542436866471</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>0.02495465855151793</v>
+        <v>0.05501421563504592</v>
       </c>
       <c r="C80">
-        <v>-0.003087431538004667</v>
+        <v>-0.01989788352623208</v>
       </c>
       <c r="D80">
-        <v>0.00466885654354777</v>
+        <v>-0.06600884346753871</v>
       </c>
       <c r="E80">
-        <v>0.03134945328360963</v>
+        <v>-0.006997206730089188</v>
       </c>
       <c r="F80">
-        <v>0.01489592139944368</v>
+        <v>0.008138958059475319</v>
       </c>
       <c r="G80">
-        <v>-0.01811661125206734</v>
+        <v>-0.03558999967206725</v>
       </c>
       <c r="H80">
-        <v>0.06989788730509019</v>
+        <v>0.09409393602048563</v>
       </c>
       <c r="I80">
-        <v>-0.02814384114066552</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>-0.1015168086830925</v>
+      </c>
+      <c r="J80">
+        <v>0.02598675540362467</v>
+      </c>
+      <c r="K80">
+        <v>0.02071727441799285</v>
+      </c>
+      <c r="L80">
+        <v>0.08075456836281537</v>
+      </c>
+      <c r="M80">
+        <v>-0.0108524052868091</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>0.1167300275217663</v>
+        <v>0.1198972186110248</v>
       </c>
       <c r="C81">
-        <v>0.05157353016286744</v>
+        <v>-0.05404638907043897</v>
       </c>
       <c r="D81">
-        <v>0.04514479553770918</v>
+        <v>-0.001861995010010955</v>
       </c>
       <c r="E81">
-        <v>0.02664329267324008</v>
+        <v>-0.009209677972766105</v>
       </c>
       <c r="F81">
-        <v>0.01660784533661586</v>
+        <v>-0.008853119458191188</v>
       </c>
       <c r="G81">
-        <v>0.1075777340752297</v>
+        <v>0.1479675474385433</v>
       </c>
       <c r="H81">
-        <v>-0.0173490775822109</v>
+        <v>0.05202485724250043</v>
       </c>
       <c r="I81">
-        <v>-0.04209908382784366</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>0.0774053767971566</v>
+      </c>
+      <c r="J81">
+        <v>-0.03533951139847359</v>
+      </c>
+      <c r="K81">
+        <v>-0.0075991186883164</v>
+      </c>
+      <c r="L81">
+        <v>-0.02043012091563328</v>
+      </c>
+      <c r="M81">
+        <v>0.04713390493188589</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>0.1122167861038043</v>
+        <v>0.117728587747535</v>
       </c>
       <c r="C82">
-        <v>0.03142018963986581</v>
+        <v>-0.05244133349625136</v>
       </c>
       <c r="D82">
-        <v>0.0672367116399589</v>
+        <v>-0.0232440891149924</v>
       </c>
       <c r="E82">
-        <v>0.07830682179295005</v>
+        <v>0.002617270506967474</v>
       </c>
       <c r="F82">
-        <v>0.03208102664189137</v>
+        <v>0.04002316943360011</v>
       </c>
       <c r="G82">
-        <v>0.2785409085588521</v>
+        <v>0.2280357573871428</v>
       </c>
       <c r="H82">
-        <v>-0.06385670328464409</v>
+        <v>0.05304779954893959</v>
       </c>
       <c r="I82">
-        <v>-0.02428921122649975</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>0.1085287751851545</v>
+      </c>
+      <c r="J82">
+        <v>-0.06730945436945319</v>
+      </c>
+      <c r="K82">
+        <v>0.008263008922902422</v>
+      </c>
+      <c r="L82">
+        <v>0.0319707401278945</v>
+      </c>
+      <c r="M82">
+        <v>-0.03523293977994416</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>0.05263192855673763</v>
+        <v>0.07582803907035778</v>
       </c>
       <c r="C83">
-        <v>0.03140567015178723</v>
+        <v>-0.06356790755676937</v>
       </c>
       <c r="D83">
-        <v>0.03877733486942462</v>
+        <v>-0.0160650067866376</v>
       </c>
       <c r="E83">
-        <v>0.02702878241771377</v>
+        <v>-0.008367953304236052</v>
       </c>
       <c r="F83">
-        <v>-0.03886775073098594</v>
+        <v>0.007971761993780189</v>
       </c>
       <c r="G83">
-        <v>-0.08912162659411832</v>
+        <v>0.01908905045248491</v>
       </c>
       <c r="H83">
-        <v>-0.05407002532046758</v>
+        <v>-0.04438376152611391</v>
       </c>
       <c r="I83">
-        <v>0.06002663628403027</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>-0.04903337056534143</v>
+      </c>
+      <c r="J83">
+        <v>0.006412672188625623</v>
+      </c>
+      <c r="K83">
+        <v>-0.02154827379692415</v>
+      </c>
+      <c r="L83">
+        <v>0.1385380042752118</v>
+      </c>
+      <c r="M83">
+        <v>0.04673451250218862</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>0.05379388920250262</v>
+        <v>0.0432477514106553</v>
       </c>
       <c r="C84">
-        <v>0.0294183146616698</v>
+        <v>0.02251376009503818</v>
       </c>
       <c r="D84">
-        <v>-0.02311759994506211</v>
+        <v>-0.002343801203689034</v>
       </c>
       <c r="E84">
-        <v>0.006664548885032969</v>
+        <v>0.02141468002335885</v>
       </c>
       <c r="F84">
-        <v>0.1306224442604957</v>
+        <v>-0.01033968085753342</v>
       </c>
       <c r="G84">
-        <v>-0.007330043845333293</v>
+        <v>-0.2115761102630322</v>
       </c>
       <c r="H84">
-        <v>-0.04321909731474723</v>
+        <v>0.2300472344201014</v>
       </c>
       <c r="I84">
-        <v>0.0378780264653673</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>-0.04115374643205198</v>
+      </c>
+      <c r="J84">
+        <v>-0.05801249907056401</v>
+      </c>
+      <c r="K84">
+        <v>-0.09727089717970536</v>
+      </c>
+      <c r="L84">
+        <v>0.1518274967327686</v>
+      </c>
+      <c r="M84">
+        <v>-0.50751828221079</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>0.07977121710757377</v>
+        <v>0.1077141040055335</v>
       </c>
       <c r="C85">
-        <v>0.04067754360514763</v>
+        <v>-0.0515401060305145</v>
       </c>
       <c r="D85">
-        <v>0.05945227492755475</v>
+        <v>-0.01591208388784798</v>
       </c>
       <c r="E85">
-        <v>0.004315361751556787</v>
+        <v>-0.03388999277576312</v>
       </c>
       <c r="F85">
-        <v>0.03280411934815514</v>
+        <v>0.0005563654067048957</v>
       </c>
       <c r="G85">
-        <v>0.1884360067516737</v>
+        <v>0.1675724558318015</v>
       </c>
       <c r="H85">
-        <v>0.004695903012784428</v>
+        <v>0.0330707356557881</v>
       </c>
       <c r="I85">
-        <v>-0.04367987245103207</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>0.082489515192</v>
+      </c>
+      <c r="J85">
+        <v>-0.06238861662215599</v>
+      </c>
+      <c r="K85">
+        <v>0.05212111492003214</v>
+      </c>
+      <c r="L85">
+        <v>-0.05818572279263658</v>
+      </c>
+      <c r="M85">
+        <v>-0.01221276668938627</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>0.04062344559461785</v>
+        <v>0.07109871668117448</v>
       </c>
       <c r="C86">
-        <v>0.0484464412799824</v>
+        <v>-0.02292529910693739</v>
       </c>
       <c r="D86">
-        <v>0.008128221647809731</v>
+        <v>0.01090532443599342</v>
       </c>
       <c r="E86">
-        <v>-0.03928784914123743</v>
+        <v>-0.0894671744948569</v>
       </c>
       <c r="F86">
-        <v>-0.05137918143357288</v>
+        <v>-0.06452309205741341</v>
       </c>
       <c r="G86">
-        <v>-0.03364018710847877</v>
+        <v>-0.3943596081361014</v>
       </c>
       <c r="H86">
-        <v>0.08477414739064908</v>
+        <v>0.3938039922177755</v>
       </c>
       <c r="I86">
-        <v>-0.07072317154371327</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>0.2856908281915006</v>
+      </c>
+      <c r="J86">
+        <v>-0.5176742453680842</v>
+      </c>
+      <c r="K86">
+        <v>-0.2110864859370352</v>
+      </c>
+      <c r="L86">
+        <v>-0.1898451186734695</v>
+      </c>
+      <c r="M86">
+        <v>0.02457369411749646</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>0.09192996587850265</v>
+        <v>0.1103230214666168</v>
       </c>
       <c r="C87">
-        <v>0.06742070470330112</v>
+        <v>-0.06675333916879579</v>
       </c>
       <c r="D87">
-        <v>0.009485721702693401</v>
+        <v>0.03939535650819088</v>
       </c>
       <c r="E87">
-        <v>-0.1386136073207135</v>
+        <v>-0.03475112447745176</v>
       </c>
       <c r="F87">
-        <v>-0.1431387368997938</v>
+        <v>-0.1619048942662344</v>
       </c>
       <c r="G87">
-        <v>0.002277440974777687</v>
+        <v>-0.08912812856290819</v>
       </c>
       <c r="H87">
-        <v>0.0546401245667676</v>
+        <v>-0.1388043030052355</v>
       </c>
       <c r="I87">
-        <v>0.1041179476607409</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>-0.01967581957391757</v>
+      </c>
+      <c r="J87">
+        <v>-0.0682141654117118</v>
+      </c>
+      <c r="K87">
+        <v>-0.009864876340329044</v>
+      </c>
+      <c r="L87">
+        <v>0.1041088905543959</v>
+      </c>
+      <c r="M87">
+        <v>-0.06897432578181324</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>0.04624214515267265</v>
+        <v>0.05747239613059964</v>
       </c>
       <c r="C88">
-        <v>0.03904979376278687</v>
+        <v>-0.05326344892452246</v>
       </c>
       <c r="D88">
-        <v>0.01851062729026733</v>
+        <v>-0.02998427611843992</v>
       </c>
       <c r="E88">
-        <v>-0.002829223726891451</v>
+        <v>-0.01495132425573436</v>
       </c>
       <c r="F88">
-        <v>-0.002902389385728493</v>
+        <v>-0.02728745338662648</v>
       </c>
       <c r="G88">
-        <v>-0.01818490235003806</v>
+        <v>0.02911803023905866</v>
       </c>
       <c r="H88">
-        <v>0.001917774866767864</v>
+        <v>0.02190373240047513</v>
       </c>
       <c r="I88">
-        <v>0.04479052415378336</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>-0.04198509603049624</v>
+      </c>
+      <c r="J88">
+        <v>-0.004216221497812127</v>
+      </c>
+      <c r="K88">
+        <v>-0.02615240246172774</v>
+      </c>
+      <c r="L88">
+        <v>0.01874715635176545</v>
+      </c>
+      <c r="M88">
+        <v>0.01974760653394685</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>0.1723126441912518</v>
+        <v>0.218505891092128</v>
       </c>
       <c r="C89">
-        <v>-0.3177732855673507</v>
+        <v>0.3551671462335712</v>
       </c>
       <c r="D89">
-        <v>0.06211950824617837</v>
+        <v>0.04368801779830688</v>
       </c>
       <c r="E89">
-        <v>-0.08567485553345142</v>
+        <v>-0.08115949505314299</v>
       </c>
       <c r="F89">
-        <v>-0.004194687962330195</v>
+        <v>-0.01028286290178065</v>
       </c>
       <c r="G89">
-        <v>-0.03904102092631718</v>
+        <v>0.009006342255465993</v>
       </c>
       <c r="H89">
-        <v>-0.02406049376003417</v>
+        <v>0.0205128127355647</v>
       </c>
       <c r="I89">
-        <v>-0.01148544432022973</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>-0.01776816670131092</v>
+      </c>
+      <c r="J89">
+        <v>0.0359000195228085</v>
+      </c>
+      <c r="K89">
+        <v>-0.06101588776329626</v>
+      </c>
+      <c r="L89">
+        <v>0.02310142990941194</v>
+      </c>
+      <c r="M89">
+        <v>0.09930799979942094</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>0.1315099612882396</v>
+        <v>0.1503645596501839</v>
       </c>
       <c r="C90">
-        <v>-0.2737556146918843</v>
+        <v>0.2697240081968619</v>
       </c>
       <c r="D90">
-        <v>9.136657188793856e-06</v>
+        <v>-0.005576460735314663</v>
       </c>
       <c r="E90">
-        <v>-0.05639997551985869</v>
+        <v>-0.0172252147771069</v>
       </c>
       <c r="F90">
-        <v>-0.02429598123214392</v>
+        <v>-0.03061412020765575</v>
       </c>
       <c r="G90">
-        <v>-0.03533954277125754</v>
+        <v>-0.001717221806812612</v>
       </c>
       <c r="H90">
-        <v>0.04550335894101035</v>
+        <v>-0.01393930464575819</v>
       </c>
       <c r="I90">
-        <v>0.09571015769531201</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>-0.06666655437263448</v>
+      </c>
+      <c r="J90">
+        <v>0.007064708016943112</v>
+      </c>
+      <c r="K90">
+        <v>-0.0278994806697418</v>
+      </c>
+      <c r="L90">
+        <v>0.0008964879376719601</v>
+      </c>
+      <c r="M90">
+        <v>-0.03488993620313189</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>0.08343905812148131</v>
+        <v>0.0762091803982226</v>
       </c>
       <c r="C91">
-        <v>0.03039403609905567</v>
+        <v>-0.05026502820598918</v>
       </c>
       <c r="D91">
-        <v>0.01553921986970565</v>
+        <v>0.0103487643768786</v>
       </c>
       <c r="E91">
-        <v>-0.01731021438383695</v>
+        <v>-0.007706272805192061</v>
       </c>
       <c r="F91">
-        <v>0.02724908204659882</v>
+        <v>0.0160978904710996</v>
       </c>
       <c r="G91">
-        <v>0.1068751592918016</v>
+        <v>0.08388787231300615</v>
       </c>
       <c r="H91">
-        <v>-0.03156206038781661</v>
+        <v>0.02026833409058172</v>
       </c>
       <c r="I91">
-        <v>-0.05049861539634984</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>0.06668948067381103</v>
+      </c>
+      <c r="J91">
+        <v>-0.002919112310591429</v>
+      </c>
+      <c r="K91">
+        <v>-0.00161979884689876</v>
+      </c>
+      <c r="L91">
+        <v>-0.03159126463560136</v>
+      </c>
+      <c r="M91">
+        <v>0.005533399650587804</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>0.147054746494319</v>
+        <v>0.1665616193565571</v>
       </c>
       <c r="C92">
-        <v>-0.3046960406620294</v>
+        <v>0.3023543516436711</v>
       </c>
       <c r="D92">
-        <v>0.04098234556635999</v>
+        <v>0.03000071561117753</v>
       </c>
       <c r="E92">
-        <v>-0.03392230362751525</v>
+        <v>-0.04729101139336347</v>
       </c>
       <c r="F92">
-        <v>0.0630672421586073</v>
+        <v>-0.006858968652205895</v>
       </c>
       <c r="G92">
-        <v>-0.02575714230341662</v>
+        <v>0.0320842036023683</v>
       </c>
       <c r="H92">
-        <v>-0.03785122466949512</v>
+        <v>0.01881487888701571</v>
       </c>
       <c r="I92">
-        <v>-0.007801760408578152</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>-0.01790496014101834</v>
+      </c>
+      <c r="J92">
+        <v>0.03637744704533323</v>
+      </c>
+      <c r="K92">
+        <v>-0.01584428108361071</v>
+      </c>
+      <c r="L92">
+        <v>-0.002053270491160162</v>
+      </c>
+      <c r="M92">
+        <v>0.03375247989094836</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>0.1396344014226956</v>
+        <v>0.1642355792266746</v>
       </c>
       <c r="C93">
-        <v>-0.2496619386543027</v>
+        <v>0.2878633738913131</v>
       </c>
       <c r="D93">
-        <v>0.01199801937598684</v>
+        <v>-0.02663542445588655</v>
       </c>
       <c r="E93">
-        <v>-0.02217805484546759</v>
+        <v>-0.007324355588991617</v>
       </c>
       <c r="F93">
-        <v>-0.002041647768484769</v>
+        <v>-0.008273111939783855</v>
       </c>
       <c r="G93">
-        <v>-0.05171682301843474</v>
+        <v>-0.01258891756571661</v>
       </c>
       <c r="H93">
-        <v>0.007550698164203107</v>
+        <v>0.02236842536890511</v>
       </c>
       <c r="I93">
-        <v>0.03150649103812302</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>-0.01822310824644868</v>
+      </c>
+      <c r="J93">
+        <v>-0.03298337600561685</v>
+      </c>
+      <c r="K93">
+        <v>-0.008739036225705415</v>
+      </c>
+      <c r="L93">
+        <v>0.02503779779766652</v>
+      </c>
+      <c r="M93">
+        <v>-0.01745743788009696</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>0.08883078377645373</v>
+        <v>0.1061600639691923</v>
       </c>
       <c r="C94">
-        <v>0.06111511043262652</v>
+        <v>-0.0755903908121186</v>
       </c>
       <c r="D94">
-        <v>0.01824090129784462</v>
+        <v>0.01127926820022401</v>
       </c>
       <c r="E94">
-        <v>-0.007845746143638465</v>
+        <v>-0.01588427675665862</v>
       </c>
       <c r="F94">
-        <v>0.0281054078440237</v>
+        <v>0.04001217506356046</v>
       </c>
       <c r="G94">
-        <v>0.1509388892981181</v>
+        <v>0.1239047436326029</v>
       </c>
       <c r="H94">
-        <v>-0.07293404736805453</v>
+        <v>0.03026821211388749</v>
       </c>
       <c r="I94">
-        <v>-0.1103130967109513</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>0.0629160629012802</v>
+      </c>
+      <c r="J94">
+        <v>0.004190678655421167</v>
+      </c>
+      <c r="K94">
+        <v>0.0137984204266904</v>
+      </c>
+      <c r="L94">
+        <v>-0.03701380998922237</v>
+      </c>
+      <c r="M94">
+        <v>0.04943523732103874</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>0.101527245126993</v>
+        <v>0.135216042801276</v>
       </c>
       <c r="C95">
-        <v>0.08875618514970936</v>
+        <v>-0.0720929942103665</v>
       </c>
       <c r="D95">
-        <v>0.09142804075235046</v>
+        <v>0.00953806772744515</v>
       </c>
       <c r="E95">
-        <v>-0.01639182491687312</v>
+        <v>-0.07251406135781122</v>
       </c>
       <c r="F95">
-        <v>0.01710200021337402</v>
+        <v>-0.06183697018772706</v>
       </c>
       <c r="G95">
-        <v>-0.03046848274817763</v>
+        <v>-0.1844733050529338</v>
       </c>
       <c r="H95">
-        <v>0.05214974259232719</v>
+        <v>0.07636422362966444</v>
       </c>
       <c r="I95">
-        <v>0.01908928357161708</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>-0.1466200402601957</v>
+      </c>
+      <c r="J95">
+        <v>-0.1686868084942701</v>
+      </c>
+      <c r="K95">
+        <v>-0.05097130407401158</v>
+      </c>
+      <c r="L95">
+        <v>-0.01536359916695732</v>
+      </c>
+      <c r="M95">
+        <v>0.205142733108086</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3490,97 +4642,145 @@
       <c r="I96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>0.3006907966672142</v>
+        <v>0.1717807898431955</v>
       </c>
       <c r="C97">
-        <v>0.06138758078880482</v>
+        <v>-0.01138121878123484</v>
       </c>
       <c r="D97">
-        <v>-0.8629193203292179</v>
+        <v>0.1011096828316324</v>
       </c>
       <c r="E97">
-        <v>0.1941461873421313</v>
+        <v>0.9344824694335134</v>
       </c>
       <c r="F97">
-        <v>0.02877196449812288</v>
+        <v>-0.02651027182259543</v>
       </c>
       <c r="G97">
-        <v>-0.08758346103034088</v>
+        <v>-0.1068398517874411</v>
       </c>
       <c r="H97">
-        <v>0.06608215737022075</v>
+        <v>0.03905748555987033</v>
       </c>
       <c r="I97">
-        <v>-0.0004346193315668932</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>-0.01483609830122269</v>
+      </c>
+      <c r="J97">
+        <v>0.02030668080854982</v>
+      </c>
+      <c r="K97">
+        <v>-0.05792714242319177</v>
+      </c>
+      <c r="L97">
+        <v>-0.01643572408756701</v>
+      </c>
+      <c r="M97">
+        <v>0.02467689729787681</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>0.2652348312190363</v>
+        <v>0.2613489669857941</v>
       </c>
       <c r="C98">
-        <v>0.09544649154235553</v>
+        <v>-0.1206688049311007</v>
       </c>
       <c r="D98">
-        <v>0.1789239894080527</v>
+        <v>-0.01329331530710658</v>
       </c>
       <c r="E98">
-        <v>0.2996124460067975</v>
+        <v>-0.02637369386791374</v>
       </c>
       <c r="F98">
-        <v>-0.01905671955367742</v>
+        <v>0.4138537915860586</v>
       </c>
       <c r="G98">
-        <v>-0.4931336716069227</v>
+        <v>-0.2720551054828707</v>
       </c>
       <c r="H98">
-        <v>-0.3197268218454834</v>
+        <v>-0.1905193465771103</v>
       </c>
       <c r="I98">
-        <v>0.1574259954349456</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>0.20713786440559</v>
+      </c>
+      <c r="J98">
+        <v>0.1153350318170216</v>
+      </c>
+      <c r="K98">
+        <v>0.1428504421838058</v>
+      </c>
+      <c r="L98">
+        <v>0.5769787388517055</v>
+      </c>
+      <c r="M98">
+        <v>0.000571903679432591</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>0.05969262744329294</v>
+        <v>0.06996421778605895</v>
       </c>
       <c r="C99">
-        <v>0.04890276548961871</v>
+        <v>-0.05429397882066468</v>
       </c>
       <c r="D99">
-        <v>-0.02690827027240717</v>
+        <v>0.02327807910271025</v>
       </c>
       <c r="E99">
-        <v>0.04947851951475057</v>
+        <v>-0.002420579992663919</v>
       </c>
       <c r="F99">
-        <v>-0.4773003313622505</v>
+        <v>0.002817004309795633</v>
       </c>
       <c r="G99">
-        <v>0.04007273620928693</v>
+        <v>0.04573785774846896</v>
       </c>
       <c r="H99">
-        <v>-0.6595079739111239</v>
+        <v>-0.1291660730343112</v>
       </c>
       <c r="I99">
-        <v>-0.3483545134201799</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>0.3028147104133756</v>
+      </c>
+      <c r="J99">
+        <v>-0.08413353071855242</v>
+      </c>
+      <c r="K99">
+        <v>-0.1916918950502468</v>
+      </c>
+      <c r="L99">
+        <v>0.02674504548982207</v>
+      </c>
+      <c r="M99">
+        <v>0.5644364183880938</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3606,39 +4806,63 @@
       <c r="I100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:9">
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>0.04751595088976415</v>
+        <v>0.04489891983135594</v>
       </c>
       <c r="C101">
-        <v>0.01420385756228293</v>
+        <v>-0.02308428267874055</v>
       </c>
       <c r="D101">
-        <v>0.01398276991577017</v>
+        <v>0.0002985173894937116</v>
       </c>
       <c r="E101">
-        <v>-0.02302303135522189</v>
+        <v>-0.02291212553037736</v>
       </c>
       <c r="F101">
-        <v>0.02407824037922515</v>
+        <v>-0.04528034511275183</v>
       </c>
       <c r="G101">
-        <v>-0.008804638302773919</v>
+        <v>0.03522377697126154</v>
       </c>
       <c r="H101">
-        <v>0.02342756910925858</v>
+        <v>0.05761417968258723</v>
       </c>
       <c r="I101">
-        <v>-0.00163853733840987</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>-0.0151430698309208</v>
+      </c>
+      <c r="J101">
+        <v>-0.02697624308252668</v>
+      </c>
+      <c r="K101">
+        <v>0.04007173273870602</v>
+      </c>
+      <c r="L101">
+        <v>0.03836377358986453</v>
+      </c>
+      <c r="M101">
+        <v>-0.02160826313730506</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3664,10 +4888,22 @@
       <c r="I102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3693,10 +4929,22 @@
       <c r="I103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3720,6 +4968,18 @@
         <v>0</v>
       </c>
       <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
